--- a/SAEM-1 Data.xlsx
+++ b/SAEM-1 Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="20730" windowHeight="11760" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="20730" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Buildings" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3366" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3378" uniqueCount="457">
   <si>
     <t>Building</t>
   </si>
@@ -1388,6 +1388,9 @@
   </si>
   <si>
     <t>LocationID</t>
+  </si>
+  <si>
+    <t>postcode</t>
   </si>
 </sst>
 </file>
@@ -12902,8 +12905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12940,6 +12943,9 @@
       <c r="G1" s="8" t="s">
         <v>454</v>
       </c>
+      <c r="M1" s="8" t="s">
+        <v>456</v>
+      </c>
       <c r="N1" s="8" t="s">
         <v>210</v>
       </c>
@@ -13058,6 +13064,9 @@
       <c r="B6" t="s">
         <v>218</v>
       </c>
+      <c r="C6" s="22" t="s">
+        <v>35</v>
+      </c>
       <c r="D6" s="22">
         <v>6635</v>
       </c>
@@ -13081,6 +13090,9 @@
       <c r="B7" t="s">
         <v>219</v>
       </c>
+      <c r="C7" s="22" t="s">
+        <v>44</v>
+      </c>
       <c r="D7" s="22">
         <v>6774</v>
       </c>
@@ -13104,6 +13116,9 @@
       <c r="B8" t="s">
         <v>221</v>
       </c>
+      <c r="C8" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="D8" s="22">
         <v>6775</v>
       </c>
@@ -13127,6 +13142,9 @@
       <c r="B9" t="s">
         <v>223</v>
       </c>
+      <c r="C9" s="22" t="s">
+        <v>185</v>
+      </c>
       <c r="D9" s="22">
         <v>6716</v>
       </c>
@@ -13150,6 +13168,9 @@
       <c r="B10" t="s">
         <v>308</v>
       </c>
+      <c r="C10" s="22" t="s">
+        <v>168</v>
+      </c>
       <c r="D10" s="22">
         <v>6687</v>
       </c>
@@ -13173,6 +13194,9 @@
       <c r="B11" t="s">
         <v>221</v>
       </c>
+      <c r="C11" s="22" t="s">
+        <v>182</v>
+      </c>
       <c r="D11" s="22">
         <v>6398</v>
       </c>
@@ -13196,6 +13220,9 @@
       <c r="B12" t="s">
         <v>306</v>
       </c>
+      <c r="C12" s="22" t="s">
+        <v>183</v>
+      </c>
       <c r="D12" s="22">
         <v>6270</v>
       </c>
@@ -13219,6 +13246,9 @@
       <c r="B13" t="s">
         <v>310</v>
       </c>
+      <c r="C13" s="22" t="s">
+        <v>185</v>
+      </c>
       <c r="D13" s="22">
         <v>6221</v>
       </c>
@@ -13242,6 +13272,9 @@
       <c r="B14" t="s">
         <v>221</v>
       </c>
+      <c r="C14" s="22" t="s">
+        <v>28</v>
+      </c>
       <c r="D14" s="22">
         <v>6626</v>
       </c>
@@ -13317,6 +13350,9 @@
       <c r="B17" t="s">
         <v>305</v>
       </c>
+      <c r="C17" s="22" t="s">
+        <v>185</v>
+      </c>
       <c r="D17" s="22">
         <v>6681</v>
       </c>
@@ -13339,6 +13375,9 @@
       </c>
       <c r="B18" t="s">
         <v>307</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="D18" s="22">
         <v>6715</v>
@@ -14194,9 +14233,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G790"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C62" sqref="C62"/>
+      <selection pane="bottomLeft" activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14241,7 +14280,7 @@
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E6" ca="1" si="0">RANDBETWEEN(345000,624900)</f>
-        <v>614068</v>
+        <v>492375</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -14253,7 +14292,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>560675</v>
+        <v>573110</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -14265,7 +14304,7 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>500081</v>
+        <v>563427</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -14281,7 +14320,7 @@
       </c>
       <c r="D8">
         <f ca="1">RANDBETWEEN(345000,624900)</f>
-        <v>537215</v>
+        <v>521845</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -14293,7 +14332,7 @@
       </c>
       <c r="D9">
         <f t="shared" ref="D9:D17" ca="1" si="1">RANDBETWEEN(345000,624900)</f>
-        <v>453301</v>
+        <v>469237</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -14305,7 +14344,7 @@
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="1"/>
-        <v>432294</v>
+        <v>541753</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -14322,7 +14361,7 @@
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="1"/>
-        <v>352095</v>
+        <v>414658</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -14334,7 +14373,7 @@
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="1"/>
-        <v>445443</v>
+        <v>373815</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -14346,7 +14385,7 @@
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="1"/>
-        <v>459671</v>
+        <v>518946</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -14358,7 +14397,7 @@
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="1"/>
-        <v>610730</v>
+        <v>345814</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -14370,7 +14409,7 @@
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="1"/>
-        <v>390001</v>
+        <v>346303</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -14382,7 +14421,7 @@
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>409473</v>
+        <v>495683</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -14399,7 +14438,7 @@
       </c>
       <c r="D21">
         <f t="shared" ref="D21:D24" ca="1" si="2">RANDBETWEEN(345000,624900)</f>
-        <v>379316</v>
+        <v>505791</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -14411,7 +14450,7 @@
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="2"/>
-        <v>436375</v>
+        <v>358199</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -14423,7 +14462,7 @@
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="2"/>
-        <v>368565</v>
+        <v>534570</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -14435,7 +14474,7 @@
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="2"/>
-        <v>484138</v>
+        <v>454553</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -14447,11 +14486,11 @@
       </c>
       <c r="C26">
         <f t="shared" ref="C26:C35" ca="1" si="3">RANDBETWEEN(345000,624900)</f>
-        <v>416560</v>
+        <v>604267</v>
       </c>
       <c r="D26">
         <f t="shared" ref="D26" ca="1" si="4">RANDBETWEEN(345000,624900)</f>
-        <v>579021</v>
+        <v>487817</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -14463,7 +14502,7 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="3"/>
-        <v>480643</v>
+        <v>576385</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -14475,7 +14514,7 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="3"/>
-        <v>511105</v>
+        <v>396048</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -14487,7 +14526,7 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="3"/>
-        <v>617707</v>
+        <v>516874</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -14499,7 +14538,7 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="3"/>
-        <v>590679</v>
+        <v>526694</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -14511,7 +14550,7 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="3"/>
-        <v>495925</v>
+        <v>519052</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -14523,7 +14562,7 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="3"/>
-        <v>594167</v>
+        <v>397185</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -14535,7 +14574,7 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="3"/>
-        <v>488949</v>
+        <v>498229</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -14547,7 +14586,7 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="3"/>
-        <v>479568</v>
+        <v>539202</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -14559,7 +14598,7 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="3"/>
-        <v>573769</v>
+        <v>424162</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -14571,11 +14610,11 @@
       </c>
       <c r="C37">
         <f t="shared" ref="C37:C46" ca="1" si="5">RANDBETWEEN(345000,624900)</f>
-        <v>445133</v>
+        <v>403763</v>
       </c>
       <c r="D37">
         <f t="shared" ref="D37" ca="1" si="6">RANDBETWEEN(345000,624900)</f>
-        <v>569351</v>
+        <v>576949</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -14587,7 +14626,7 @@
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="5"/>
-        <v>478791</v>
+        <v>459845</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -14599,7 +14638,7 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="5"/>
-        <v>535748</v>
+        <v>497649</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -14611,7 +14650,7 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="5"/>
-        <v>481922</v>
+        <v>510134</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -14623,7 +14662,7 @@
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="5"/>
-        <v>473867</v>
+        <v>601210</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -14635,7 +14674,7 @@
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="5"/>
-        <v>537647</v>
+        <v>600358</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -14647,7 +14686,7 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="5"/>
-        <v>493933</v>
+        <v>467206</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -14659,7 +14698,7 @@
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="5"/>
-        <v>427077</v>
+        <v>516695</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -14671,7 +14710,7 @@
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="5"/>
-        <v>368102</v>
+        <v>613262</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -14683,7 +14722,7 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="5"/>
-        <v>616240</v>
+        <v>494934</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -14695,11 +14734,11 @@
       </c>
       <c r="C48">
         <f t="shared" ref="C48:C57" ca="1" si="7">RANDBETWEEN(345000,624900)</f>
-        <v>347801</v>
+        <v>425949</v>
       </c>
       <c r="D48">
         <f t="shared" ref="D48" ca="1" si="8">RANDBETWEEN(345000,624900)</f>
-        <v>414775</v>
+        <v>384163</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -14711,7 +14750,7 @@
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="7"/>
-        <v>586898</v>
+        <v>396815</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -14723,7 +14762,7 @@
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="7"/>
-        <v>522865</v>
+        <v>548312</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -14735,7 +14774,7 @@
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="7"/>
-        <v>578136</v>
+        <v>389166</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -14747,7 +14786,7 @@
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="7"/>
-        <v>562297</v>
+        <v>418673</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -14759,7 +14798,7 @@
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="7"/>
-        <v>373657</v>
+        <v>448810</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -14771,7 +14810,7 @@
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="7"/>
-        <v>439468</v>
+        <v>475861</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -14783,7 +14822,7 @@
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="7"/>
-        <v>460619</v>
+        <v>570348</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -14795,7 +14834,7 @@
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="7"/>
-        <v>396099</v>
+        <v>355786</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -14807,7 +14846,7 @@
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="7"/>
-        <v>425203</v>
+        <v>566035</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="17" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -14829,7 +14868,7 @@
       </c>
       <c r="E60">
         <f t="shared" ref="E60:E63" ca="1" si="9">RANDBETWEEN(345000,624900)</f>
-        <v>501359</v>
+        <v>534904</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -14841,7 +14880,7 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="9"/>
-        <v>484798</v>
+        <v>600759</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -14853,7 +14892,7 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="9"/>
-        <v>503075</v>
+        <v>519769</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -14865,7 +14904,7 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="9"/>
-        <v>422565</v>
+        <v>606827</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -14877,7 +14916,7 @@
       </c>
       <c r="D64">
         <f t="shared" ref="D64:D65" ca="1" si="10">RANDBETWEEN(345000,624900)</f>
-        <v>381352</v>
+        <v>405587</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -14889,7 +14928,7 @@
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="10"/>
-        <v>390494</v>
+        <v>576512</v>
       </c>
     </row>
     <row r="66" spans="1:4" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -14906,7 +14945,7 @@
       </c>
       <c r="D67">
         <f t="shared" ref="D67:D75" ca="1" si="11">RANDBETWEEN(345000,624900)</f>
-        <v>405742</v>
+        <v>479616</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -14918,7 +14957,7 @@
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="11"/>
-        <v>396915</v>
+        <v>351787</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -14930,7 +14969,7 @@
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="11"/>
-        <v>362736</v>
+        <v>357160</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -14942,7 +14981,7 @@
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="11"/>
-        <v>453563</v>
+        <v>550399</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -14954,7 +14993,7 @@
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="11"/>
-        <v>364065</v>
+        <v>349472</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -14966,7 +15005,7 @@
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="11"/>
-        <v>371257</v>
+        <v>521809</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -14978,7 +15017,7 @@
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="11"/>
-        <v>440654</v>
+        <v>558654</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -14990,11 +15029,11 @@
       </c>
       <c r="C75">
         <f t="shared" ref="C75:C104" ca="1" si="12">RANDBETWEEN(345000,624900)</f>
-        <v>605055</v>
+        <v>566350</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="11"/>
-        <v>490578</v>
+        <v>402216</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -15006,7 +15045,7 @@
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="12"/>
-        <v>345047</v>
+        <v>427979</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -15018,7 +15057,7 @@
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="12"/>
-        <v>474426</v>
+        <v>544115</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -15030,7 +15069,7 @@
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="12"/>
-        <v>597906</v>
+        <v>603793</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -15042,7 +15081,7 @@
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="12"/>
-        <v>452636</v>
+        <v>385416</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -15054,7 +15093,7 @@
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="12"/>
-        <v>427761</v>
+        <v>402737</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -15066,7 +15105,7 @@
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="12"/>
-        <v>540769</v>
+        <v>470428</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -15078,7 +15117,7 @@
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="12"/>
-        <v>515385</v>
+        <v>587357</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -15090,7 +15129,7 @@
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="12"/>
-        <v>401302</v>
+        <v>533239</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -15102,7 +15141,7 @@
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="12"/>
-        <v>429835</v>
+        <v>493630</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -15114,7 +15153,7 @@
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="12"/>
-        <v>539493</v>
+        <v>391836</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -15126,7 +15165,7 @@
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="12"/>
-        <v>528626</v>
+        <v>425952</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -15138,7 +15177,7 @@
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="12"/>
-        <v>346303</v>
+        <v>526552</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -15150,7 +15189,7 @@
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="12"/>
-        <v>512611</v>
+        <v>427691</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -15162,7 +15201,7 @@
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="12"/>
-        <v>474408</v>
+        <v>563311</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -15174,7 +15213,7 @@
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="12"/>
-        <v>355712</v>
+        <v>359144</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -15186,7 +15225,7 @@
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="12"/>
-        <v>591325</v>
+        <v>519472</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -15198,7 +15237,7 @@
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="12"/>
-        <v>362323</v>
+        <v>592879</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -15210,7 +15249,7 @@
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="12"/>
-        <v>358403</v>
+        <v>550055</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -15222,7 +15261,7 @@
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="12"/>
-        <v>412042</v>
+        <v>558224</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -15234,7 +15273,7 @@
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="12"/>
-        <v>451299</v>
+        <v>576861</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -15246,7 +15285,7 @@
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="12"/>
-        <v>383357</v>
+        <v>481930</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -15258,7 +15297,7 @@
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="12"/>
-        <v>473600</v>
+        <v>476515</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -15270,7 +15309,7 @@
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="12"/>
-        <v>446174</v>
+        <v>404021</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -15282,7 +15321,7 @@
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="12"/>
-        <v>589658</v>
+        <v>445949</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -15294,7 +15333,7 @@
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="12"/>
-        <v>578672</v>
+        <v>493054</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -15306,7 +15345,7 @@
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="12"/>
-        <v>578712</v>
+        <v>454543</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -15318,7 +15357,7 @@
       </c>
       <c r="C102">
         <f t="shared" ca="1" si="12"/>
-        <v>570018</v>
+        <v>496424</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -15330,7 +15369,7 @@
       </c>
       <c r="C103">
         <f t="shared" ca="1" si="12"/>
-        <v>446268</v>
+        <v>416321</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -15342,7 +15381,7 @@
       </c>
       <c r="C104">
         <f t="shared" ca="1" si="12"/>
-        <v>415087</v>
+        <v>622049</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -15354,11 +15393,11 @@
       </c>
       <c r="C106">
         <f t="shared" ref="C106:D169" ca="1" si="13">RANDBETWEEN(345000,624900)</f>
-        <v>503272</v>
+        <v>546649</v>
       </c>
       <c r="D106">
         <f t="shared" ca="1" si="13"/>
-        <v>396135</v>
+        <v>349449</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -15370,7 +15409,7 @@
       </c>
       <c r="C107">
         <f t="shared" ca="1" si="13"/>
-        <v>520871</v>
+        <v>604945</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -15382,7 +15421,7 @@
       </c>
       <c r="C108">
         <f t="shared" ca="1" si="13"/>
-        <v>488723</v>
+        <v>434401</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -15394,7 +15433,7 @@
       </c>
       <c r="C109">
         <f t="shared" ca="1" si="13"/>
-        <v>352577</v>
+        <v>540739</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -15406,7 +15445,7 @@
       </c>
       <c r="C110">
         <f t="shared" ca="1" si="13"/>
-        <v>571668</v>
+        <v>406455</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -15418,7 +15457,7 @@
       </c>
       <c r="C111">
         <f t="shared" ca="1" si="13"/>
-        <v>442865</v>
+        <v>616222</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -15430,7 +15469,7 @@
       </c>
       <c r="C112">
         <f t="shared" ca="1" si="13"/>
-        <v>606766</v>
+        <v>410070</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -15442,7 +15481,7 @@
       </c>
       <c r="C113">
         <f t="shared" ca="1" si="13"/>
-        <v>521049</v>
+        <v>540014</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -15454,7 +15493,7 @@
       </c>
       <c r="C114">
         <f t="shared" ca="1" si="13"/>
-        <v>495969</v>
+        <v>517613</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -15466,7 +15505,7 @@
       </c>
       <c r="C115">
         <f t="shared" ca="1" si="13"/>
-        <v>374055</v>
+        <v>491685</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -15478,7 +15517,7 @@
       </c>
       <c r="C116">
         <f t="shared" ca="1" si="13"/>
-        <v>386232</v>
+        <v>488279</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -15490,7 +15529,7 @@
       </c>
       <c r="C117">
         <f t="shared" ca="1" si="13"/>
-        <v>542379</v>
+        <v>443499</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -15502,7 +15541,7 @@
       </c>
       <c r="C118">
         <f t="shared" ca="1" si="13"/>
-        <v>447699</v>
+        <v>517315</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -15514,7 +15553,7 @@
       </c>
       <c r="C119">
         <f t="shared" ca="1" si="13"/>
-        <v>406520</v>
+        <v>613614</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -15526,7 +15565,7 @@
       </c>
       <c r="C120">
         <f t="shared" ca="1" si="13"/>
-        <v>557715</v>
+        <v>592574</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -15538,7 +15577,7 @@
       </c>
       <c r="C121">
         <f t="shared" ca="1" si="13"/>
-        <v>361795</v>
+        <v>583006</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -15550,7 +15589,7 @@
       </c>
       <c r="C122">
         <f t="shared" ca="1" si="13"/>
-        <v>463959</v>
+        <v>425426</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -15562,7 +15601,7 @@
       </c>
       <c r="C123">
         <f t="shared" ca="1" si="13"/>
-        <v>566424</v>
+        <v>497254</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -15574,7 +15613,7 @@
       </c>
       <c r="C124">
         <f t="shared" ca="1" si="13"/>
-        <v>593770</v>
+        <v>408161</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -15586,7 +15625,7 @@
       </c>
       <c r="C125">
         <f t="shared" ca="1" si="13"/>
-        <v>428740</v>
+        <v>619827</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -15598,7 +15637,7 @@
       </c>
       <c r="C126">
         <f t="shared" ca="1" si="13"/>
-        <v>602108</v>
+        <v>440985</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -15610,7 +15649,7 @@
       </c>
       <c r="C127">
         <f t="shared" ca="1" si="13"/>
-        <v>355934</v>
+        <v>503857</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -15622,7 +15661,7 @@
       </c>
       <c r="C128">
         <f t="shared" ca="1" si="13"/>
-        <v>581318</v>
+        <v>584968</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -15634,7 +15673,7 @@
       </c>
       <c r="C129">
         <f t="shared" ca="1" si="13"/>
-        <v>363473</v>
+        <v>456557</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -15646,7 +15685,7 @@
       </c>
       <c r="C130">
         <f t="shared" ca="1" si="13"/>
-        <v>588623</v>
+        <v>549590</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -15658,7 +15697,7 @@
       </c>
       <c r="C131">
         <f t="shared" ca="1" si="13"/>
-        <v>441306</v>
+        <v>540210</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -15670,7 +15709,7 @@
       </c>
       <c r="C132">
         <f t="shared" ca="1" si="13"/>
-        <v>489990</v>
+        <v>455135</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -15682,7 +15721,7 @@
       </c>
       <c r="C133">
         <f t="shared" ca="1" si="13"/>
-        <v>438853</v>
+        <v>410478</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -15694,7 +15733,7 @@
       </c>
       <c r="C134">
         <f t="shared" ca="1" si="13"/>
-        <v>426514</v>
+        <v>349806</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -15706,7 +15745,7 @@
       </c>
       <c r="C135">
         <f t="shared" ca="1" si="13"/>
-        <v>510586</v>
+        <v>547453</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -15718,11 +15757,11 @@
       </c>
       <c r="C137">
         <f t="shared" ca="1" si="13"/>
-        <v>384458</v>
+        <v>459901</v>
       </c>
       <c r="D137">
         <f t="shared" ca="1" si="13"/>
-        <v>410427</v>
+        <v>619069</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -15734,7 +15773,7 @@
       </c>
       <c r="C138">
         <f t="shared" ca="1" si="13"/>
-        <v>601363</v>
+        <v>506251</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -15746,7 +15785,7 @@
       </c>
       <c r="C139">
         <f t="shared" ca="1" si="13"/>
-        <v>457252</v>
+        <v>418946</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -15758,7 +15797,7 @@
       </c>
       <c r="C140">
         <f t="shared" ca="1" si="13"/>
-        <v>453039</v>
+        <v>602578</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -15770,7 +15809,7 @@
       </c>
       <c r="C141">
         <f t="shared" ca="1" si="13"/>
-        <v>578929</v>
+        <v>600083</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -15782,7 +15821,7 @@
       </c>
       <c r="C142">
         <f t="shared" ca="1" si="13"/>
-        <v>578507</v>
+        <v>360927</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -15794,7 +15833,7 @@
       </c>
       <c r="C143">
         <f t="shared" ca="1" si="13"/>
-        <v>554648</v>
+        <v>439671</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -15806,7 +15845,7 @@
       </c>
       <c r="C144">
         <f t="shared" ca="1" si="13"/>
-        <v>480007</v>
+        <v>402776</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -15818,7 +15857,7 @@
       </c>
       <c r="C145">
         <f t="shared" ca="1" si="13"/>
-        <v>470947</v>
+        <v>460294</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -15830,7 +15869,7 @@
       </c>
       <c r="C146">
         <f t="shared" ca="1" si="13"/>
-        <v>619795</v>
+        <v>557644</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -15842,7 +15881,7 @@
       </c>
       <c r="C147">
         <f t="shared" ca="1" si="13"/>
-        <v>429276</v>
+        <v>534072</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -15854,7 +15893,7 @@
       </c>
       <c r="C148">
         <f t="shared" ca="1" si="13"/>
-        <v>427346</v>
+        <v>512501</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -15866,7 +15905,7 @@
       </c>
       <c r="C149">
         <f t="shared" ca="1" si="13"/>
-        <v>545104</v>
+        <v>518615</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -15878,7 +15917,7 @@
       </c>
       <c r="C150">
         <f t="shared" ca="1" si="13"/>
-        <v>520437</v>
+        <v>590462</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -15890,7 +15929,7 @@
       </c>
       <c r="C151">
         <f t="shared" ca="1" si="13"/>
-        <v>619221</v>
+        <v>563052</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -15902,7 +15941,7 @@
       </c>
       <c r="C152">
         <f t="shared" ca="1" si="13"/>
-        <v>516325</v>
+        <v>487323</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -15914,7 +15953,7 @@
       </c>
       <c r="C153">
         <f t="shared" ca="1" si="13"/>
-        <v>412514</v>
+        <v>385799</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -15926,7 +15965,7 @@
       </c>
       <c r="C154">
         <f t="shared" ca="1" si="13"/>
-        <v>528686</v>
+        <v>596691</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -15938,7 +15977,7 @@
       </c>
       <c r="C155">
         <f t="shared" ca="1" si="13"/>
-        <v>530414</v>
+        <v>419249</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -15950,7 +15989,7 @@
       </c>
       <c r="C156">
         <f t="shared" ca="1" si="13"/>
-        <v>508333</v>
+        <v>484953</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -15962,7 +16001,7 @@
       </c>
       <c r="C157">
         <f t="shared" ca="1" si="13"/>
-        <v>477868</v>
+        <v>455574</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -15974,7 +16013,7 @@
       </c>
       <c r="C158">
         <f t="shared" ca="1" si="13"/>
-        <v>587510</v>
+        <v>520729</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -15986,7 +16025,7 @@
       </c>
       <c r="C159">
         <f t="shared" ca="1" si="13"/>
-        <v>404594</v>
+        <v>470562</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -15998,7 +16037,7 @@
       </c>
       <c r="C160">
         <f t="shared" ca="1" si="13"/>
-        <v>613893</v>
+        <v>514935</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -16010,7 +16049,7 @@
       </c>
       <c r="C161">
         <f t="shared" ca="1" si="13"/>
-        <v>463279</v>
+        <v>458322</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -16022,7 +16061,7 @@
       </c>
       <c r="C162">
         <f t="shared" ca="1" si="13"/>
-        <v>567445</v>
+        <v>526107</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -16034,7 +16073,7 @@
       </c>
       <c r="C163">
         <f t="shared" ca="1" si="13"/>
-        <v>616366</v>
+        <v>369458</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -16046,7 +16085,7 @@
       </c>
       <c r="C164">
         <f t="shared" ca="1" si="13"/>
-        <v>392962</v>
+        <v>350322</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -16058,7 +16097,7 @@
       </c>
       <c r="C165">
         <f t="shared" ca="1" si="13"/>
-        <v>487002</v>
+        <v>391390</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -16070,7 +16109,7 @@
       </c>
       <c r="C166">
         <f t="shared" ca="1" si="13"/>
-        <v>409878</v>
+        <v>405228</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -16082,11 +16121,11 @@
       </c>
       <c r="C168">
         <f t="shared" ca="1" si="13"/>
-        <v>446654</v>
+        <v>390442</v>
       </c>
       <c r="D168">
         <f t="shared" ca="1" si="13"/>
-        <v>451523</v>
+        <v>606832</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -16098,7 +16137,7 @@
       </c>
       <c r="C169">
         <f t="shared" ca="1" si="13"/>
-        <v>545738</v>
+        <v>555368</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -16110,7 +16149,7 @@
       </c>
       <c r="C170">
         <f t="shared" ref="C170:C197" ca="1" si="14">RANDBETWEEN(345000,624900)</f>
-        <v>432795</v>
+        <v>601379</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -16122,7 +16161,7 @@
       </c>
       <c r="C171">
         <f t="shared" ca="1" si="14"/>
-        <v>530565</v>
+        <v>526018</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -16134,7 +16173,7 @@
       </c>
       <c r="C172">
         <f t="shared" ca="1" si="14"/>
-        <v>368653</v>
+        <v>613234</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -16146,7 +16185,7 @@
       </c>
       <c r="C173">
         <f t="shared" ca="1" si="14"/>
-        <v>447984</v>
+        <v>600638</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -16158,7 +16197,7 @@
       </c>
       <c r="C174">
         <f t="shared" ca="1" si="14"/>
-        <v>389106</v>
+        <v>489402</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -16170,7 +16209,7 @@
       </c>
       <c r="C175">
         <f t="shared" ca="1" si="14"/>
-        <v>349819</v>
+        <v>607063</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -16182,7 +16221,7 @@
       </c>
       <c r="C176">
         <f t="shared" ca="1" si="14"/>
-        <v>493426</v>
+        <v>617687</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -16194,7 +16233,7 @@
       </c>
       <c r="C177">
         <f t="shared" ca="1" si="14"/>
-        <v>497409</v>
+        <v>579366</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -16206,7 +16245,7 @@
       </c>
       <c r="C178">
         <f t="shared" ca="1" si="14"/>
-        <v>614628</v>
+        <v>428793</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -16218,7 +16257,7 @@
       </c>
       <c r="C179">
         <f t="shared" ca="1" si="14"/>
-        <v>410028</v>
+        <v>438844</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -16230,7 +16269,7 @@
       </c>
       <c r="C180">
         <f t="shared" ca="1" si="14"/>
-        <v>550143</v>
+        <v>507996</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -16242,7 +16281,7 @@
       </c>
       <c r="C181">
         <f t="shared" ca="1" si="14"/>
-        <v>461866</v>
+        <v>455131</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -16254,7 +16293,7 @@
       </c>
       <c r="C182">
         <f t="shared" ca="1" si="14"/>
-        <v>422349</v>
+        <v>444158</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -16266,7 +16305,7 @@
       </c>
       <c r="C183">
         <f t="shared" ca="1" si="14"/>
-        <v>466622</v>
+        <v>596835</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -16278,7 +16317,7 @@
       </c>
       <c r="C184">
         <f t="shared" ca="1" si="14"/>
-        <v>388438</v>
+        <v>535529</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -16290,7 +16329,7 @@
       </c>
       <c r="C185">
         <f t="shared" ca="1" si="14"/>
-        <v>406938</v>
+        <v>565868</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -16302,7 +16341,7 @@
       </c>
       <c r="C186">
         <f t="shared" ca="1" si="14"/>
-        <v>451901</v>
+        <v>540029</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -16314,7 +16353,7 @@
       </c>
       <c r="C187">
         <f t="shared" ca="1" si="14"/>
-        <v>576940</v>
+        <v>526323</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -16326,7 +16365,7 @@
       </c>
       <c r="C188">
         <f t="shared" ca="1" si="14"/>
-        <v>586816</v>
+        <v>587779</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -16338,7 +16377,7 @@
       </c>
       <c r="C189">
         <f t="shared" ca="1" si="14"/>
-        <v>353219</v>
+        <v>437926</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -16350,7 +16389,7 @@
       </c>
       <c r="C190">
         <f t="shared" ca="1" si="14"/>
-        <v>409386</v>
+        <v>351695</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -16362,7 +16401,7 @@
       </c>
       <c r="C191">
         <f t="shared" ca="1" si="14"/>
-        <v>464045</v>
+        <v>561027</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -16374,7 +16413,7 @@
       </c>
       <c r="C192">
         <f t="shared" ca="1" si="14"/>
-        <v>374749</v>
+        <v>559835</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -16386,7 +16425,7 @@
       </c>
       <c r="C193">
         <f t="shared" ca="1" si="14"/>
-        <v>524930</v>
+        <v>623049</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -16398,7 +16437,7 @@
       </c>
       <c r="C194">
         <f t="shared" ca="1" si="14"/>
-        <v>607628</v>
+        <v>620533</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -16410,7 +16449,7 @@
       </c>
       <c r="C195">
         <f t="shared" ca="1" si="14"/>
-        <v>487330</v>
+        <v>615162</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -16422,7 +16461,7 @@
       </c>
       <c r="C196">
         <f t="shared" ca="1" si="14"/>
-        <v>551340</v>
+        <v>354465</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -16434,7 +16473,7 @@
       </c>
       <c r="C197">
         <f t="shared" ca="1" si="14"/>
-        <v>407481</v>
+        <v>419854</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -16446,11 +16485,11 @@
       </c>
       <c r="C199">
         <f t="shared" ref="C199:D228" ca="1" si="15">RANDBETWEEN(345000,624900)</f>
-        <v>472286</v>
+        <v>349775</v>
       </c>
       <c r="D199">
         <f t="shared" ca="1" si="15"/>
-        <v>409166</v>
+        <v>458577</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -16462,7 +16501,7 @@
       </c>
       <c r="C200">
         <f t="shared" ca="1" si="15"/>
-        <v>358799</v>
+        <v>519855</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -16474,7 +16513,7 @@
       </c>
       <c r="C201">
         <f t="shared" ca="1" si="15"/>
-        <v>534049</v>
+        <v>575899</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -16486,7 +16525,7 @@
       </c>
       <c r="C202">
         <f t="shared" ca="1" si="15"/>
-        <v>413277</v>
+        <v>617164</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -16498,7 +16537,7 @@
       </c>
       <c r="C203">
         <f t="shared" ca="1" si="15"/>
-        <v>508429</v>
+        <v>421272</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -16510,7 +16549,7 @@
       </c>
       <c r="C204">
         <f t="shared" ca="1" si="15"/>
-        <v>374102</v>
+        <v>592293</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -16522,7 +16561,7 @@
       </c>
       <c r="C205">
         <f t="shared" ca="1" si="15"/>
-        <v>355267</v>
+        <v>440241</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -16534,7 +16573,7 @@
       </c>
       <c r="C206">
         <f t="shared" ca="1" si="15"/>
-        <v>482475</v>
+        <v>459879</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -16546,7 +16585,7 @@
       </c>
       <c r="C207">
         <f t="shared" ca="1" si="15"/>
-        <v>616858</v>
+        <v>616968</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -16558,7 +16597,7 @@
       </c>
       <c r="C208">
         <f t="shared" ca="1" si="15"/>
-        <v>591489</v>
+        <v>477838</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -16570,7 +16609,7 @@
       </c>
       <c r="C209">
         <f t="shared" ca="1" si="15"/>
-        <v>521834</v>
+        <v>561436</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -16582,7 +16621,7 @@
       </c>
       <c r="C210">
         <f t="shared" ca="1" si="15"/>
-        <v>475048</v>
+        <v>518248</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -16594,7 +16633,7 @@
       </c>
       <c r="C211">
         <f t="shared" ca="1" si="15"/>
-        <v>542335</v>
+        <v>426723</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -16606,7 +16645,7 @@
       </c>
       <c r="C212">
         <f t="shared" ca="1" si="15"/>
-        <v>563472</v>
+        <v>464818</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -16618,7 +16657,7 @@
       </c>
       <c r="C213">
         <f t="shared" ca="1" si="15"/>
-        <v>487486</v>
+        <v>424244</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -16630,7 +16669,7 @@
       </c>
       <c r="C214">
         <f t="shared" ca="1" si="15"/>
-        <v>383202</v>
+        <v>547356</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -16642,7 +16681,7 @@
       </c>
       <c r="C215">
         <f t="shared" ca="1" si="15"/>
-        <v>601923</v>
+        <v>354862</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -16654,7 +16693,7 @@
       </c>
       <c r="C216">
         <f t="shared" ca="1" si="15"/>
-        <v>521823</v>
+        <v>415034</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -16666,7 +16705,7 @@
       </c>
       <c r="C217">
         <f t="shared" ca="1" si="15"/>
-        <v>400988</v>
+        <v>372437</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -16678,7 +16717,7 @@
       </c>
       <c r="C218">
         <f t="shared" ca="1" si="15"/>
-        <v>503337</v>
+        <v>549396</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -16690,7 +16729,7 @@
       </c>
       <c r="C219">
         <f t="shared" ca="1" si="15"/>
-        <v>475104</v>
+        <v>401377</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -16702,7 +16741,7 @@
       </c>
       <c r="C220">
         <f t="shared" ca="1" si="15"/>
-        <v>423260</v>
+        <v>415278</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -16714,7 +16753,7 @@
       </c>
       <c r="C221">
         <f t="shared" ca="1" si="15"/>
-        <v>360681</v>
+        <v>404293</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -16726,7 +16765,7 @@
       </c>
       <c r="C222">
         <f t="shared" ca="1" si="15"/>
-        <v>442633</v>
+        <v>364748</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -16738,7 +16777,7 @@
       </c>
       <c r="C223">
         <f t="shared" ca="1" si="15"/>
-        <v>556429</v>
+        <v>427493</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -16750,7 +16789,7 @@
       </c>
       <c r="C224">
         <f t="shared" ca="1" si="15"/>
-        <v>493143</v>
+        <v>372080</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -16762,7 +16801,7 @@
       </c>
       <c r="C225">
         <f t="shared" ca="1" si="15"/>
-        <v>380210</v>
+        <v>350809</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -16774,7 +16813,7 @@
       </c>
       <c r="C226">
         <f t="shared" ca="1" si="15"/>
-        <v>364974</v>
+        <v>396388</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -16786,7 +16825,7 @@
       </c>
       <c r="C227">
         <f t="shared" ca="1" si="15"/>
-        <v>508507</v>
+        <v>533656</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -16798,7 +16837,7 @@
       </c>
       <c r="C228">
         <f t="shared" ca="1" si="15"/>
-        <v>465084</v>
+        <v>595273</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -16810,11 +16849,11 @@
       </c>
       <c r="C230">
         <f t="shared" ref="C230:E292" ca="1" si="16">RANDBETWEEN(345000,624900)</f>
-        <v>361599</v>
+        <v>597925</v>
       </c>
       <c r="D230">
         <f t="shared" ca="1" si="16"/>
-        <v>518327</v>
+        <v>613016</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -16826,7 +16865,7 @@
       </c>
       <c r="C231">
         <f t="shared" ca="1" si="16"/>
-        <v>607412</v>
+        <v>423285</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -16838,7 +16877,7 @@
       </c>
       <c r="C232">
         <f t="shared" ca="1" si="16"/>
-        <v>616587</v>
+        <v>433821</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -16850,7 +16889,7 @@
       </c>
       <c r="C233">
         <f t="shared" ca="1" si="16"/>
-        <v>475166</v>
+        <v>368345</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -16862,7 +16901,7 @@
       </c>
       <c r="C234">
         <f t="shared" ca="1" si="16"/>
-        <v>499504</v>
+        <v>482879</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -16874,7 +16913,7 @@
       </c>
       <c r="C235">
         <f t="shared" ca="1" si="16"/>
-        <v>508732</v>
+        <v>378613</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -16886,7 +16925,7 @@
       </c>
       <c r="C236">
         <f t="shared" ca="1" si="16"/>
-        <v>383637</v>
+        <v>505585</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -16898,7 +16937,7 @@
       </c>
       <c r="C237">
         <f t="shared" ca="1" si="16"/>
-        <v>403932</v>
+        <v>400381</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -16910,7 +16949,7 @@
       </c>
       <c r="C238">
         <f t="shared" ca="1" si="16"/>
-        <v>550496</v>
+        <v>392003</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -16922,7 +16961,7 @@
       </c>
       <c r="C239">
         <f t="shared" ca="1" si="16"/>
-        <v>406292</v>
+        <v>415996</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -16934,7 +16973,7 @@
       </c>
       <c r="C240">
         <f t="shared" ca="1" si="16"/>
-        <v>398398</v>
+        <v>606499</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -16946,7 +16985,7 @@
       </c>
       <c r="C241">
         <f t="shared" ca="1" si="16"/>
-        <v>467522</v>
+        <v>578101</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -16958,7 +16997,7 @@
       </c>
       <c r="C242">
         <f t="shared" ca="1" si="16"/>
-        <v>551257</v>
+        <v>542801</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -16970,7 +17009,7 @@
       </c>
       <c r="C243">
         <f t="shared" ca="1" si="16"/>
-        <v>349064</v>
+        <v>475348</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -16982,7 +17021,7 @@
       </c>
       <c r="C244">
         <f t="shared" ca="1" si="16"/>
-        <v>369580</v>
+        <v>527397</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -16994,7 +17033,7 @@
       </c>
       <c r="C245">
         <f t="shared" ca="1" si="16"/>
-        <v>399943</v>
+        <v>537115</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -17006,7 +17045,7 @@
       </c>
       <c r="C246">
         <f t="shared" ca="1" si="16"/>
-        <v>602555</v>
+        <v>470329</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -17018,7 +17057,7 @@
       </c>
       <c r="C247">
         <f t="shared" ca="1" si="16"/>
-        <v>412302</v>
+        <v>413126</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -17030,7 +17069,7 @@
       </c>
       <c r="C248">
         <f t="shared" ca="1" si="16"/>
-        <v>454376</v>
+        <v>589419</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -17042,7 +17081,7 @@
       </c>
       <c r="C249">
         <f t="shared" ca="1" si="16"/>
-        <v>508269</v>
+        <v>529580</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -17054,7 +17093,7 @@
       </c>
       <c r="C250">
         <f t="shared" ca="1" si="16"/>
-        <v>614407</v>
+        <v>411677</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -17066,7 +17105,7 @@
       </c>
       <c r="C251">
         <f t="shared" ca="1" si="16"/>
-        <v>437760</v>
+        <v>538133</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -17078,7 +17117,7 @@
       </c>
       <c r="C252">
         <f t="shared" ca="1" si="16"/>
-        <v>620621</v>
+        <v>407397</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -17090,7 +17129,7 @@
       </c>
       <c r="C253">
         <f t="shared" ca="1" si="16"/>
-        <v>492503</v>
+        <v>530245</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -17102,7 +17141,7 @@
       </c>
       <c r="C254">
         <f t="shared" ca="1" si="16"/>
-        <v>473686</v>
+        <v>403159</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -17114,7 +17153,7 @@
       </c>
       <c r="C255">
         <f t="shared" ca="1" si="16"/>
-        <v>602935</v>
+        <v>579478</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -17126,7 +17165,7 @@
       </c>
       <c r="C256">
         <f t="shared" ca="1" si="16"/>
-        <v>592678</v>
+        <v>460371</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -17138,7 +17177,7 @@
       </c>
       <c r="C257">
         <f t="shared" ca="1" si="16"/>
-        <v>473002</v>
+        <v>356470</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -17150,7 +17189,7 @@
       </c>
       <c r="C258">
         <f t="shared" ca="1" si="16"/>
-        <v>483171</v>
+        <v>446746</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -17162,7 +17201,7 @@
       </c>
       <c r="C259">
         <f t="shared" ca="1" si="16"/>
-        <v>601849</v>
+        <v>405286</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -17174,11 +17213,11 @@
       </c>
       <c r="C261">
         <f t="shared" ca="1" si="16"/>
-        <v>577158</v>
+        <v>369150</v>
       </c>
       <c r="D261">
         <f t="shared" ca="1" si="16"/>
-        <v>455805</v>
+        <v>474668</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -17190,7 +17229,7 @@
       </c>
       <c r="C262">
         <f t="shared" ca="1" si="16"/>
-        <v>358845</v>
+        <v>469628</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -17202,7 +17241,7 @@
       </c>
       <c r="C263">
         <f t="shared" ca="1" si="16"/>
-        <v>531386</v>
+        <v>513652</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -17214,7 +17253,7 @@
       </c>
       <c r="C264">
         <f t="shared" ca="1" si="16"/>
-        <v>624285</v>
+        <v>410974</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -17226,7 +17265,7 @@
       </c>
       <c r="C265">
         <f t="shared" ca="1" si="16"/>
-        <v>380282</v>
+        <v>574549</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -17238,7 +17277,7 @@
       </c>
       <c r="C266">
         <f t="shared" ca="1" si="16"/>
-        <v>624384</v>
+        <v>519402</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -17250,7 +17289,7 @@
       </c>
       <c r="C267">
         <f t="shared" ca="1" si="16"/>
-        <v>475940</v>
+        <v>448468</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -17262,7 +17301,7 @@
       </c>
       <c r="C268">
         <f t="shared" ca="1" si="16"/>
-        <v>624070</v>
+        <v>388625</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -17274,7 +17313,7 @@
       </c>
       <c r="C269">
         <f t="shared" ca="1" si="16"/>
-        <v>581581</v>
+        <v>544310</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -17286,7 +17325,7 @@
       </c>
       <c r="C270">
         <f t="shared" ca="1" si="16"/>
-        <v>418207</v>
+        <v>364289</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -17298,7 +17337,7 @@
       </c>
       <c r="C271">
         <f t="shared" ca="1" si="16"/>
-        <v>537180</v>
+        <v>407464</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -17310,7 +17349,7 @@
       </c>
       <c r="C272">
         <f t="shared" ca="1" si="16"/>
-        <v>416574</v>
+        <v>524152</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -17322,7 +17361,7 @@
       </c>
       <c r="C273">
         <f t="shared" ca="1" si="16"/>
-        <v>417031</v>
+        <v>593367</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -17334,7 +17373,7 @@
       </c>
       <c r="C274">
         <f t="shared" ca="1" si="16"/>
-        <v>536814</v>
+        <v>613180</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -17346,7 +17385,7 @@
       </c>
       <c r="C275">
         <f t="shared" ca="1" si="16"/>
-        <v>592488</v>
+        <v>358733</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -17358,7 +17397,7 @@
       </c>
       <c r="C276">
         <f t="shared" ca="1" si="16"/>
-        <v>571345</v>
+        <v>561360</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -17370,7 +17409,7 @@
       </c>
       <c r="C277">
         <f t="shared" ca="1" si="16"/>
-        <v>516165</v>
+        <v>356644</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -17382,7 +17421,7 @@
       </c>
       <c r="C278">
         <f t="shared" ca="1" si="16"/>
-        <v>440250</v>
+        <v>400360</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -17394,7 +17433,7 @@
       </c>
       <c r="C279">
         <f t="shared" ca="1" si="16"/>
-        <v>390718</v>
+        <v>537453</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -17406,7 +17445,7 @@
       </c>
       <c r="C280">
         <f t="shared" ca="1" si="16"/>
-        <v>569000</v>
+        <v>373085</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -17418,7 +17457,7 @@
       </c>
       <c r="C281">
         <f t="shared" ca="1" si="16"/>
-        <v>441027</v>
+        <v>418374</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -17430,7 +17469,7 @@
       </c>
       <c r="C282">
         <f t="shared" ca="1" si="16"/>
-        <v>484557</v>
+        <v>504133</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -17442,7 +17481,7 @@
       </c>
       <c r="C283">
         <f t="shared" ca="1" si="16"/>
-        <v>490575</v>
+        <v>396092</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -17454,7 +17493,7 @@
       </c>
       <c r="C284">
         <f t="shared" ca="1" si="16"/>
-        <v>488675</v>
+        <v>463899</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -17466,7 +17505,7 @@
       </c>
       <c r="C285">
         <f t="shared" ca="1" si="16"/>
-        <v>454296</v>
+        <v>500364</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -17478,7 +17517,7 @@
       </c>
       <c r="C286">
         <f t="shared" ca="1" si="16"/>
-        <v>394649</v>
+        <v>412483</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -17490,7 +17529,7 @@
       </c>
       <c r="C287">
         <f t="shared" ca="1" si="16"/>
-        <v>584831</v>
+        <v>469462</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -17502,7 +17541,7 @@
       </c>
       <c r="C288">
         <f t="shared" ca="1" si="16"/>
-        <v>488596</v>
+        <v>421581</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
@@ -17514,7 +17553,7 @@
       </c>
       <c r="C289">
         <f t="shared" ca="1" si="16"/>
-        <v>415792</v>
+        <v>533246</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
@@ -17526,7 +17565,7 @@
       </c>
       <c r="C290">
         <f t="shared" ca="1" si="16"/>
-        <v>351902</v>
+        <v>473249</v>
       </c>
     </row>
     <row r="291" spans="1:5" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -17543,7 +17582,7 @@
       </c>
       <c r="E292">
         <f t="shared" ca="1" si="16"/>
-        <v>389132</v>
+        <v>572500</v>
       </c>
     </row>
     <row r="293" spans="1:5" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17555,7 +17594,7 @@
       </c>
       <c r="E293">
         <f t="shared" ref="E293:E301" ca="1" si="17">RANDBETWEEN(345000,624900)</f>
-        <v>561098</v>
+        <v>542377</v>
       </c>
     </row>
     <row r="294" spans="1:5" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17567,7 +17606,7 @@
       </c>
       <c r="E294">
         <f t="shared" ca="1" si="17"/>
-        <v>590922</v>
+        <v>424436</v>
       </c>
     </row>
     <row r="295" spans="1:5" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17579,7 +17618,7 @@
       </c>
       <c r="E295">
         <f t="shared" ca="1" si="17"/>
-        <v>526751</v>
+        <v>484214</v>
       </c>
     </row>
     <row r="296" spans="1:5" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17591,7 +17630,7 @@
       </c>
       <c r="E296">
         <f t="shared" ca="1" si="17"/>
-        <v>452710</v>
+        <v>483963</v>
       </c>
     </row>
     <row r="297" spans="1:5" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17603,7 +17642,7 @@
       </c>
       <c r="E297">
         <f t="shared" ca="1" si="17"/>
-        <v>463021</v>
+        <v>604526</v>
       </c>
     </row>
     <row r="298" spans="1:5" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17615,7 +17654,7 @@
       </c>
       <c r="E298">
         <f t="shared" ca="1" si="17"/>
-        <v>350847</v>
+        <v>450114</v>
       </c>
     </row>
     <row r="299" spans="1:5" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17627,7 +17666,7 @@
       </c>
       <c r="E299">
         <f t="shared" ca="1" si="17"/>
-        <v>556867</v>
+        <v>569955</v>
       </c>
     </row>
     <row r="300" spans="1:5" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17639,7 +17678,7 @@
       </c>
       <c r="E300">
         <f t="shared" ca="1" si="17"/>
-        <v>618077</v>
+        <v>498362</v>
       </c>
     </row>
     <row r="301" spans="1:5" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17651,7 +17690,7 @@
       </c>
       <c r="E301">
         <f t="shared" ca="1" si="17"/>
-        <v>530358</v>
+        <v>458142</v>
       </c>
     </row>
     <row r="302" spans="1:5" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17663,7 +17702,7 @@
       </c>
       <c r="D302">
         <f t="shared" ref="D302:D307" ca="1" si="18">RANDBETWEEN(345000,624900)</f>
-        <v>495921</v>
+        <v>376565</v>
       </c>
     </row>
     <row r="303" spans="1:5" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17675,7 +17714,7 @@
       </c>
       <c r="D303">
         <f t="shared" ca="1" si="18"/>
-        <v>350938</v>
+        <v>596752</v>
       </c>
     </row>
     <row r="304" spans="1:5" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17687,7 +17726,7 @@
       </c>
       <c r="D304">
         <f t="shared" ca="1" si="18"/>
-        <v>578145</v>
+        <v>566541</v>
       </c>
     </row>
     <row r="305" spans="1:6" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17699,7 +17738,7 @@
       </c>
       <c r="D305">
         <f t="shared" ca="1" si="18"/>
-        <v>566957</v>
+        <v>618963</v>
       </c>
     </row>
     <row r="306" spans="1:6" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17711,7 +17750,7 @@
       </c>
       <c r="D306">
         <f t="shared" ca="1" si="18"/>
-        <v>478966</v>
+        <v>389335</v>
       </c>
     </row>
     <row r="307" spans="1:6" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17723,7 +17762,7 @@
       </c>
       <c r="D307">
         <f t="shared" ca="1" si="18"/>
-        <v>475689</v>
+        <v>610491</v>
       </c>
     </row>
     <row r="308" spans="1:6" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17735,7 +17774,7 @@
       </c>
       <c r="E308">
         <f t="shared" ref="E308" ca="1" si="19">RANDBETWEEN(345000,624900)</f>
-        <v>477733</v>
+        <v>374607</v>
       </c>
     </row>
     <row r="309" spans="1:6" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17752,11 +17791,11 @@
       </c>
       <c r="C310">
         <f t="shared" ref="C310:D339" ca="1" si="20">RANDBETWEEN(345000,624900)</f>
-        <v>499332</v>
+        <v>571433</v>
       </c>
       <c r="D310">
         <f t="shared" ca="1" si="20"/>
-        <v>445157</v>
+        <v>391124</v>
       </c>
       <c r="E310"/>
       <c r="F310"/>
@@ -17770,7 +17809,7 @@
       </c>
       <c r="C311">
         <f t="shared" ca="1" si="20"/>
-        <v>617227</v>
+        <v>581910</v>
       </c>
       <c r="D311"/>
       <c r="E311"/>
@@ -17785,7 +17824,7 @@
       </c>
       <c r="C312">
         <f t="shared" ca="1" si="20"/>
-        <v>428414</v>
+        <v>426081</v>
       </c>
       <c r="D312"/>
       <c r="E312"/>
@@ -17800,7 +17839,7 @@
       </c>
       <c r="C313">
         <f t="shared" ca="1" si="20"/>
-        <v>458556</v>
+        <v>524306</v>
       </c>
       <c r="D313"/>
       <c r="E313"/>
@@ -17815,7 +17854,7 @@
       </c>
       <c r="C314">
         <f t="shared" ca="1" si="20"/>
-        <v>398762</v>
+        <v>535117</v>
       </c>
       <c r="D314"/>
       <c r="E314"/>
@@ -17830,7 +17869,7 @@
       </c>
       <c r="C315">
         <f t="shared" ca="1" si="20"/>
-        <v>512293</v>
+        <v>401974</v>
       </c>
       <c r="D315"/>
       <c r="E315"/>
@@ -17845,7 +17884,7 @@
       </c>
       <c r="C316">
         <f t="shared" ca="1" si="20"/>
-        <v>559648</v>
+        <v>473056</v>
       </c>
       <c r="D316"/>
       <c r="E316"/>
@@ -17860,7 +17899,7 @@
       </c>
       <c r="C317">
         <f t="shared" ca="1" si="20"/>
-        <v>484853</v>
+        <v>472039</v>
       </c>
       <c r="D317"/>
       <c r="E317"/>
@@ -17875,7 +17914,7 @@
       </c>
       <c r="C318">
         <f t="shared" ca="1" si="20"/>
-        <v>365708</v>
+        <v>594610</v>
       </c>
       <c r="D318"/>
       <c r="E318"/>
@@ -17890,7 +17929,7 @@
       </c>
       <c r="C319">
         <f t="shared" ca="1" si="20"/>
-        <v>473805</v>
+        <v>474867</v>
       </c>
       <c r="D319"/>
       <c r="E319"/>
@@ -17905,7 +17944,7 @@
       </c>
       <c r="C320">
         <f t="shared" ca="1" si="20"/>
-        <v>450370</v>
+        <v>346670</v>
       </c>
       <c r="D320"/>
       <c r="E320"/>
@@ -17920,7 +17959,7 @@
       </c>
       <c r="C321">
         <f t="shared" ca="1" si="20"/>
-        <v>514656</v>
+        <v>611368</v>
       </c>
       <c r="D321"/>
       <c r="E321"/>
@@ -17935,7 +17974,7 @@
       </c>
       <c r="C322">
         <f t="shared" ca="1" si="20"/>
-        <v>463066</v>
+        <v>535873</v>
       </c>
       <c r="D322"/>
       <c r="E322"/>
@@ -17950,7 +17989,7 @@
       </c>
       <c r="C323">
         <f t="shared" ca="1" si="20"/>
-        <v>547261</v>
+        <v>493460</v>
       </c>
       <c r="D323"/>
       <c r="E323"/>
@@ -17965,7 +18004,7 @@
       </c>
       <c r="C324">
         <f t="shared" ca="1" si="20"/>
-        <v>535166</v>
+        <v>381665</v>
       </c>
       <c r="D324"/>
       <c r="E324"/>
@@ -17980,7 +18019,7 @@
       </c>
       <c r="C325">
         <f t="shared" ca="1" si="20"/>
-        <v>545348</v>
+        <v>585016</v>
       </c>
       <c r="D325"/>
       <c r="E325"/>
@@ -17995,7 +18034,7 @@
       </c>
       <c r="C326">
         <f t="shared" ca="1" si="20"/>
-        <v>382359</v>
+        <v>371695</v>
       </c>
       <c r="D326"/>
       <c r="E326"/>
@@ -18010,7 +18049,7 @@
       </c>
       <c r="C327">
         <f t="shared" ca="1" si="20"/>
-        <v>581874</v>
+        <v>568055</v>
       </c>
       <c r="D327"/>
       <c r="E327"/>
@@ -18025,7 +18064,7 @@
       </c>
       <c r="C328">
         <f t="shared" ca="1" si="20"/>
-        <v>487651</v>
+        <v>470864</v>
       </c>
       <c r="D328"/>
       <c r="E328"/>
@@ -18040,7 +18079,7 @@
       </c>
       <c r="C329">
         <f t="shared" ca="1" si="20"/>
-        <v>361277</v>
+        <v>563144</v>
       </c>
       <c r="D329"/>
       <c r="E329"/>
@@ -18055,7 +18094,7 @@
       </c>
       <c r="C330">
         <f t="shared" ca="1" si="20"/>
-        <v>563141</v>
+        <v>544187</v>
       </c>
       <c r="D330"/>
       <c r="E330"/>
@@ -18070,7 +18109,7 @@
       </c>
       <c r="C331">
         <f t="shared" ca="1" si="20"/>
-        <v>456118</v>
+        <v>431715</v>
       </c>
       <c r="D331"/>
       <c r="E331"/>
@@ -18085,7 +18124,7 @@
       </c>
       <c r="C332">
         <f t="shared" ca="1" si="20"/>
-        <v>448074</v>
+        <v>433055</v>
       </c>
       <c r="D332"/>
       <c r="E332"/>
@@ -18100,7 +18139,7 @@
       </c>
       <c r="C333">
         <f t="shared" ca="1" si="20"/>
-        <v>521995</v>
+        <v>469093</v>
       </c>
       <c r="D333"/>
       <c r="E333"/>
@@ -18115,7 +18154,7 @@
       </c>
       <c r="C334">
         <f t="shared" ca="1" si="20"/>
-        <v>599564</v>
+        <v>548184</v>
       </c>
       <c r="D334"/>
       <c r="E334"/>
@@ -18130,7 +18169,7 @@
       </c>
       <c r="C335">
         <f t="shared" ca="1" si="20"/>
-        <v>394588</v>
+        <v>599465</v>
       </c>
       <c r="D335"/>
       <c r="E335"/>
@@ -18145,7 +18184,7 @@
       </c>
       <c r="C336">
         <f t="shared" ca="1" si="20"/>
-        <v>555223</v>
+        <v>386826</v>
       </c>
       <c r="D336"/>
       <c r="E336"/>
@@ -18160,7 +18199,7 @@
       </c>
       <c r="C337">
         <f t="shared" ca="1" si="20"/>
-        <v>449088</v>
+        <v>365931</v>
       </c>
       <c r="D337"/>
       <c r="E337"/>
@@ -18175,7 +18214,7 @@
       </c>
       <c r="C338">
         <f t="shared" ca="1" si="20"/>
-        <v>475812</v>
+        <v>497350</v>
       </c>
       <c r="D338"/>
       <c r="E338"/>
@@ -18190,7 +18229,7 @@
       </c>
       <c r="C339">
         <f t="shared" ca="1" si="20"/>
-        <v>505854</v>
+        <v>473992</v>
       </c>
       <c r="D339"/>
       <c r="E339"/>
@@ -18213,11 +18252,11 @@
       </c>
       <c r="C341">
         <f t="shared" ref="C341:D404" ca="1" si="21">RANDBETWEEN(345000,624900)</f>
-        <v>391221</v>
+        <v>433708</v>
       </c>
       <c r="D341">
         <f t="shared" ca="1" si="21"/>
-        <v>458941</v>
+        <v>419125</v>
       </c>
       <c r="E341"/>
       <c r="F341"/>
@@ -18231,7 +18270,7 @@
       </c>
       <c r="C342">
         <f t="shared" ca="1" si="21"/>
-        <v>612952</v>
+        <v>601008</v>
       </c>
       <c r="D342"/>
       <c r="E342"/>
@@ -18246,7 +18285,7 @@
       </c>
       <c r="C343">
         <f t="shared" ca="1" si="21"/>
-        <v>533795</v>
+        <v>417496</v>
       </c>
       <c r="D343"/>
       <c r="E343"/>
@@ -18261,7 +18300,7 @@
       </c>
       <c r="C344">
         <f t="shared" ca="1" si="21"/>
-        <v>469379</v>
+        <v>441207</v>
       </c>
       <c r="D344"/>
       <c r="E344"/>
@@ -18276,7 +18315,7 @@
       </c>
       <c r="C345">
         <f t="shared" ca="1" si="21"/>
-        <v>522287</v>
+        <v>559298</v>
       </c>
       <c r="D345"/>
       <c r="E345"/>
@@ -18291,7 +18330,7 @@
       </c>
       <c r="C346">
         <f t="shared" ca="1" si="21"/>
-        <v>359908</v>
+        <v>488894</v>
       </c>
       <c r="D346"/>
       <c r="E346"/>
@@ -18306,7 +18345,7 @@
       </c>
       <c r="C347">
         <f t="shared" ca="1" si="21"/>
-        <v>470251</v>
+        <v>585741</v>
       </c>
       <c r="D347"/>
       <c r="E347"/>
@@ -18321,7 +18360,7 @@
       </c>
       <c r="C348">
         <f t="shared" ca="1" si="21"/>
-        <v>530337</v>
+        <v>365367</v>
       </c>
       <c r="D348"/>
       <c r="E348"/>
@@ -18336,7 +18375,7 @@
       </c>
       <c r="C349">
         <f t="shared" ca="1" si="21"/>
-        <v>443614</v>
+        <v>569341</v>
       </c>
       <c r="D349"/>
       <c r="E349"/>
@@ -18351,7 +18390,7 @@
       </c>
       <c r="C350">
         <f t="shared" ca="1" si="21"/>
-        <v>441005</v>
+        <v>525118</v>
       </c>
       <c r="D350"/>
       <c r="E350"/>
@@ -18366,7 +18405,7 @@
       </c>
       <c r="C351">
         <f t="shared" ca="1" si="21"/>
-        <v>500053</v>
+        <v>419175</v>
       </c>
       <c r="D351"/>
       <c r="E351"/>
@@ -18381,7 +18420,7 @@
       </c>
       <c r="C352">
         <f t="shared" ca="1" si="21"/>
-        <v>419140</v>
+        <v>390935</v>
       </c>
       <c r="D352"/>
       <c r="E352"/>
@@ -18396,7 +18435,7 @@
       </c>
       <c r="C353">
         <f t="shared" ca="1" si="21"/>
-        <v>423562</v>
+        <v>457992</v>
       </c>
       <c r="D353"/>
       <c r="E353"/>
@@ -18411,7 +18450,7 @@
       </c>
       <c r="C354">
         <f t="shared" ca="1" si="21"/>
-        <v>422700</v>
+        <v>345079</v>
       </c>
       <c r="D354"/>
       <c r="E354"/>
@@ -18426,7 +18465,7 @@
       </c>
       <c r="C355">
         <f t="shared" ca="1" si="21"/>
-        <v>613967</v>
+        <v>482889</v>
       </c>
       <c r="D355"/>
       <c r="E355"/>
@@ -18441,7 +18480,7 @@
       </c>
       <c r="C356">
         <f t="shared" ca="1" si="21"/>
-        <v>398290</v>
+        <v>544054</v>
       </c>
       <c r="D356"/>
       <c r="E356"/>
@@ -18456,7 +18495,7 @@
       </c>
       <c r="C357">
         <f t="shared" ca="1" si="21"/>
-        <v>496728</v>
+        <v>550114</v>
       </c>
       <c r="D357"/>
       <c r="E357"/>
@@ -18471,7 +18510,7 @@
       </c>
       <c r="C358">
         <f t="shared" ca="1" si="21"/>
-        <v>382903</v>
+        <v>556651</v>
       </c>
       <c r="D358"/>
       <c r="E358"/>
@@ -18486,7 +18525,7 @@
       </c>
       <c r="C359">
         <f t="shared" ca="1" si="21"/>
-        <v>595254</v>
+        <v>570500</v>
       </c>
       <c r="D359"/>
       <c r="E359"/>
@@ -18501,7 +18540,7 @@
       </c>
       <c r="C360">
         <f t="shared" ca="1" si="21"/>
-        <v>345049</v>
+        <v>440111</v>
       </c>
       <c r="D360"/>
       <c r="E360"/>
@@ -18516,7 +18555,7 @@
       </c>
       <c r="C361">
         <f t="shared" ca="1" si="21"/>
-        <v>562414</v>
+        <v>514369</v>
       </c>
       <c r="D361"/>
       <c r="E361"/>
@@ -18531,7 +18570,7 @@
       </c>
       <c r="C362">
         <f t="shared" ca="1" si="21"/>
-        <v>403191</v>
+        <v>593224</v>
       </c>
       <c r="D362"/>
       <c r="E362"/>
@@ -18546,7 +18585,7 @@
       </c>
       <c r="C363">
         <f t="shared" ca="1" si="21"/>
-        <v>466437</v>
+        <v>456213</v>
       </c>
       <c r="D363"/>
       <c r="E363"/>
@@ -18561,7 +18600,7 @@
       </c>
       <c r="C364">
         <f t="shared" ca="1" si="21"/>
-        <v>362831</v>
+        <v>484293</v>
       </c>
       <c r="D364"/>
       <c r="E364"/>
@@ -18576,7 +18615,7 @@
       </c>
       <c r="C365">
         <f t="shared" ca="1" si="21"/>
-        <v>492320</v>
+        <v>424943</v>
       </c>
       <c r="D365"/>
       <c r="E365"/>
@@ -18591,7 +18630,7 @@
       </c>
       <c r="C366">
         <f t="shared" ca="1" si="21"/>
-        <v>546430</v>
+        <v>571083</v>
       </c>
       <c r="D366"/>
       <c r="E366"/>
@@ -18606,7 +18645,7 @@
       </c>
       <c r="C367">
         <f t="shared" ca="1" si="21"/>
-        <v>464934</v>
+        <v>616063</v>
       </c>
       <c r="D367"/>
       <c r="E367"/>
@@ -18621,7 +18660,7 @@
       </c>
       <c r="C368">
         <f t="shared" ca="1" si="21"/>
-        <v>483222</v>
+        <v>495819</v>
       </c>
       <c r="D368"/>
       <c r="E368"/>
@@ -18636,7 +18675,7 @@
       </c>
       <c r="C369">
         <f t="shared" ca="1" si="21"/>
-        <v>430061</v>
+        <v>501501</v>
       </c>
       <c r="D369"/>
       <c r="E369"/>
@@ -18651,7 +18690,7 @@
       </c>
       <c r="C370">
         <f t="shared" ca="1" si="21"/>
-        <v>480319</v>
+        <v>368313</v>
       </c>
       <c r="D370"/>
       <c r="E370"/>
@@ -18674,11 +18713,11 @@
       </c>
       <c r="C372">
         <f t="shared" ca="1" si="21"/>
-        <v>531823</v>
+        <v>482827</v>
       </c>
       <c r="D372">
         <f t="shared" ca="1" si="21"/>
-        <v>367753</v>
+        <v>590612</v>
       </c>
       <c r="E372"/>
       <c r="F372"/>
@@ -18692,7 +18731,7 @@
       </c>
       <c r="C373">
         <f t="shared" ca="1" si="21"/>
-        <v>559445</v>
+        <v>548196</v>
       </c>
       <c r="D373"/>
       <c r="E373"/>
@@ -18707,7 +18746,7 @@
       </c>
       <c r="C374">
         <f t="shared" ca="1" si="21"/>
-        <v>524157</v>
+        <v>472512</v>
       </c>
       <c r="G374" s="36"/>
     </row>
@@ -18720,7 +18759,7 @@
       </c>
       <c r="C375">
         <f t="shared" ca="1" si="21"/>
-        <v>379067</v>
+        <v>522728</v>
       </c>
       <c r="G375" s="36"/>
     </row>
@@ -18733,7 +18772,7 @@
       </c>
       <c r="C376">
         <f t="shared" ca="1" si="21"/>
-        <v>558430</v>
+        <v>436719</v>
       </c>
       <c r="G376" s="36"/>
     </row>
@@ -18746,7 +18785,7 @@
       </c>
       <c r="C377">
         <f t="shared" ca="1" si="21"/>
-        <v>520848</v>
+        <v>594273</v>
       </c>
       <c r="G377" s="36"/>
     </row>
@@ -18759,7 +18798,7 @@
       </c>
       <c r="C378">
         <f t="shared" ca="1" si="21"/>
-        <v>587458</v>
+        <v>593146</v>
       </c>
       <c r="G378" s="36"/>
     </row>
@@ -18772,7 +18811,7 @@
       </c>
       <c r="C379">
         <f t="shared" ca="1" si="21"/>
-        <v>550731</v>
+        <v>468669</v>
       </c>
       <c r="G379" s="36"/>
     </row>
@@ -18785,7 +18824,7 @@
       </c>
       <c r="C380">
         <f t="shared" ca="1" si="21"/>
-        <v>387712</v>
+        <v>387483</v>
       </c>
       <c r="G380" s="36"/>
     </row>
@@ -18798,7 +18837,7 @@
       </c>
       <c r="C381">
         <f t="shared" ca="1" si="21"/>
-        <v>610559</v>
+        <v>541394</v>
       </c>
       <c r="G381" s="36"/>
     </row>
@@ -18811,7 +18850,7 @@
       </c>
       <c r="C382">
         <f t="shared" ca="1" si="21"/>
-        <v>551431</v>
+        <v>403777</v>
       </c>
       <c r="G382" s="36"/>
     </row>
@@ -18824,7 +18863,7 @@
       </c>
       <c r="C383">
         <f t="shared" ca="1" si="21"/>
-        <v>620248</v>
+        <v>571901</v>
       </c>
       <c r="G383" s="36"/>
     </row>
@@ -18837,7 +18876,7 @@
       </c>
       <c r="C384">
         <f t="shared" ca="1" si="21"/>
-        <v>531769</v>
+        <v>611370</v>
       </c>
       <c r="G384" s="36"/>
     </row>
@@ -18850,7 +18889,7 @@
       </c>
       <c r="C385">
         <f t="shared" ca="1" si="21"/>
-        <v>462667</v>
+        <v>516117</v>
       </c>
       <c r="G385" s="36"/>
     </row>
@@ -18863,7 +18902,7 @@
       </c>
       <c r="C386">
         <f t="shared" ca="1" si="21"/>
-        <v>418320</v>
+        <v>370670</v>
       </c>
       <c r="G386" s="36"/>
     </row>
@@ -18876,7 +18915,7 @@
       </c>
       <c r="C387" s="36">
         <f t="shared" ca="1" si="21"/>
-        <v>503051</v>
+        <v>607787</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
@@ -18888,7 +18927,7 @@
       </c>
       <c r="C388">
         <f t="shared" ca="1" si="21"/>
-        <v>419363</v>
+        <v>406273</v>
       </c>
       <c r="G388" s="36"/>
     </row>
@@ -18901,7 +18940,7 @@
       </c>
       <c r="C389">
         <f t="shared" ca="1" si="21"/>
-        <v>495050</v>
+        <v>541017</v>
       </c>
       <c r="G389" s="36"/>
     </row>
@@ -18914,7 +18953,7 @@
       </c>
       <c r="C390">
         <f t="shared" ca="1" si="21"/>
-        <v>594176</v>
+        <v>556766</v>
       </c>
       <c r="G390" s="36"/>
     </row>
@@ -18927,7 +18966,7 @@
       </c>
       <c r="C391">
         <f t="shared" ca="1" si="21"/>
-        <v>437591</v>
+        <v>470116</v>
       </c>
       <c r="G391" s="36"/>
     </row>
@@ -18940,7 +18979,7 @@
       </c>
       <c r="C392">
         <f t="shared" ca="1" si="21"/>
-        <v>483840</v>
+        <v>455914</v>
       </c>
       <c r="G392" s="36"/>
     </row>
@@ -18953,7 +18992,7 @@
       </c>
       <c r="C393">
         <f t="shared" ca="1" si="21"/>
-        <v>424627</v>
+        <v>604887</v>
       </c>
       <c r="G393" s="36"/>
     </row>
@@ -18966,7 +19005,7 @@
       </c>
       <c r="C394">
         <f t="shared" ca="1" si="21"/>
-        <v>485895</v>
+        <v>532679</v>
       </c>
       <c r="G394" s="36"/>
     </row>
@@ -18979,7 +19018,7 @@
       </c>
       <c r="C395">
         <f t="shared" ca="1" si="21"/>
-        <v>566591</v>
+        <v>553972</v>
       </c>
       <c r="G395" s="36"/>
     </row>
@@ -18992,7 +19031,7 @@
       </c>
       <c r="C396">
         <f t="shared" ca="1" si="21"/>
-        <v>571381</v>
+        <v>619448</v>
       </c>
       <c r="G396" s="36"/>
     </row>
@@ -19005,7 +19044,7 @@
       </c>
       <c r="C397">
         <f t="shared" ca="1" si="21"/>
-        <v>345578</v>
+        <v>417687</v>
       </c>
       <c r="G397" s="36"/>
     </row>
@@ -19018,7 +19057,7 @@
       </c>
       <c r="C398">
         <f t="shared" ca="1" si="21"/>
-        <v>378368</v>
+        <v>474821</v>
       </c>
       <c r="G398" s="36"/>
     </row>
@@ -19031,7 +19070,7 @@
       </c>
       <c r="C399">
         <f t="shared" ca="1" si="21"/>
-        <v>543428</v>
+        <v>491493</v>
       </c>
       <c r="G399" s="36"/>
     </row>
@@ -19044,7 +19083,7 @@
       </c>
       <c r="C400">
         <f t="shared" ca="1" si="21"/>
-        <v>598490</v>
+        <v>570651</v>
       </c>
       <c r="G400" s="36"/>
     </row>
@@ -19057,7 +19096,7 @@
       </c>
       <c r="C401">
         <f t="shared" ca="1" si="21"/>
-        <v>410094</v>
+        <v>455383</v>
       </c>
       <c r="G401" s="36"/>
     </row>
@@ -19073,11 +19112,11 @@
       </c>
       <c r="C403">
         <f t="shared" ca="1" si="21"/>
-        <v>510298</v>
+        <v>405080</v>
       </c>
       <c r="D403">
         <f t="shared" ca="1" si="21"/>
-        <v>481826</v>
+        <v>488085</v>
       </c>
       <c r="G403" s="36"/>
     </row>
@@ -19090,7 +19129,7 @@
       </c>
       <c r="C404">
         <f t="shared" ca="1" si="21"/>
-        <v>465179</v>
+        <v>524816</v>
       </c>
       <c r="G404" s="36"/>
     </row>
@@ -19103,7 +19142,7 @@
       </c>
       <c r="C405">
         <f t="shared" ref="C405:C432" ca="1" si="22">RANDBETWEEN(345000,624900)</f>
-        <v>578055</v>
+        <v>554599</v>
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
@@ -19115,7 +19154,7 @@
       </c>
       <c r="C406">
         <f t="shared" ca="1" si="22"/>
-        <v>456479</v>
+        <v>550968</v>
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
@@ -19127,7 +19166,7 @@
       </c>
       <c r="C407">
         <f t="shared" ca="1" si="22"/>
-        <v>412917</v>
+        <v>495006</v>
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
@@ -19139,7 +19178,7 @@
       </c>
       <c r="C408">
         <f t="shared" ca="1" si="22"/>
-        <v>510606</v>
+        <v>412123</v>
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
@@ -19151,7 +19190,7 @@
       </c>
       <c r="C409">
         <f t="shared" ca="1" si="22"/>
-        <v>617601</v>
+        <v>403307</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
@@ -19163,7 +19202,7 @@
       </c>
       <c r="C410">
         <f t="shared" ca="1" si="22"/>
-        <v>564076</v>
+        <v>458620</v>
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
@@ -19175,7 +19214,7 @@
       </c>
       <c r="C411">
         <f t="shared" ca="1" si="22"/>
-        <v>465349</v>
+        <v>556326</v>
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
@@ -19187,7 +19226,7 @@
       </c>
       <c r="C412">
         <f t="shared" ca="1" si="22"/>
-        <v>412241</v>
+        <v>483339</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
@@ -19199,7 +19238,7 @@
       </c>
       <c r="C413">
         <f t="shared" ca="1" si="22"/>
-        <v>481662</v>
+        <v>620884</v>
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
@@ -19211,7 +19250,7 @@
       </c>
       <c r="C414">
         <f t="shared" ca="1" si="22"/>
-        <v>569735</v>
+        <v>525801</v>
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
@@ -19223,7 +19262,7 @@
       </c>
       <c r="C415">
         <f t="shared" ca="1" si="22"/>
-        <v>454666</v>
+        <v>616485</v>
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
@@ -19235,7 +19274,7 @@
       </c>
       <c r="C416">
         <f t="shared" ca="1" si="22"/>
-        <v>429207</v>
+        <v>441309</v>
       </c>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
@@ -19247,7 +19286,7 @@
       </c>
       <c r="C417">
         <f t="shared" ca="1" si="22"/>
-        <v>604919</v>
+        <v>521272</v>
       </c>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
@@ -19259,7 +19298,7 @@
       </c>
       <c r="C418">
         <f t="shared" ca="1" si="22"/>
-        <v>385072</v>
+        <v>523775</v>
       </c>
       <c r="G418" s="36"/>
     </row>
@@ -19272,7 +19311,7 @@
       </c>
       <c r="C419">
         <f t="shared" ca="1" si="22"/>
-        <v>345436</v>
+        <v>563128</v>
       </c>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
@@ -19284,7 +19323,7 @@
       </c>
       <c r="C420">
         <f t="shared" ca="1" si="22"/>
-        <v>499686</v>
+        <v>433307</v>
       </c>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
@@ -19296,7 +19335,7 @@
       </c>
       <c r="C421">
         <f t="shared" ca="1" si="22"/>
-        <v>394580</v>
+        <v>367945</v>
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
@@ -19308,7 +19347,7 @@
       </c>
       <c r="C422">
         <f t="shared" ca="1" si="22"/>
-        <v>552975</v>
+        <v>593874</v>
       </c>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
@@ -19320,7 +19359,7 @@
       </c>
       <c r="C423">
         <f t="shared" ca="1" si="22"/>
-        <v>487577</v>
+        <v>518302</v>
       </c>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
@@ -19332,7 +19371,7 @@
       </c>
       <c r="C424">
         <f t="shared" ca="1" si="22"/>
-        <v>592614</v>
+        <v>378066</v>
       </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
@@ -19344,7 +19383,7 @@
       </c>
       <c r="C425">
         <f t="shared" ca="1" si="22"/>
-        <v>476876</v>
+        <v>411384</v>
       </c>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
@@ -19356,7 +19395,7 @@
       </c>
       <c r="C426">
         <f t="shared" ca="1" si="22"/>
-        <v>373744</v>
+        <v>499600</v>
       </c>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
@@ -19368,7 +19407,7 @@
       </c>
       <c r="C427">
         <f t="shared" ca="1" si="22"/>
-        <v>573118</v>
+        <v>615458</v>
       </c>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
@@ -19380,7 +19419,7 @@
       </c>
       <c r="C428">
         <f t="shared" ca="1" si="22"/>
-        <v>383286</v>
+        <v>474580</v>
       </c>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
@@ -19392,7 +19431,7 @@
       </c>
       <c r="C429">
         <f t="shared" ca="1" si="22"/>
-        <v>569386</v>
+        <v>592776</v>
       </c>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
@@ -19404,7 +19443,7 @@
       </c>
       <c r="C430">
         <f t="shared" ca="1" si="22"/>
-        <v>473677</v>
+        <v>541206</v>
       </c>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
@@ -19416,7 +19455,7 @@
       </c>
       <c r="C431">
         <f t="shared" ca="1" si="22"/>
-        <v>426158</v>
+        <v>526453</v>
       </c>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
@@ -19428,7 +19467,7 @@
       </c>
       <c r="C432">
         <f t="shared" ca="1" si="22"/>
-        <v>552772</v>
+        <v>623380</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
@@ -19440,11 +19479,11 @@
       </c>
       <c r="C434">
         <f t="shared" ref="C434:D463" ca="1" si="23">RANDBETWEEN(345000,624900)</f>
-        <v>535604</v>
+        <v>548938</v>
       </c>
       <c r="D434">
         <f t="shared" ca="1" si="23"/>
-        <v>439436</v>
+        <v>493690</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
@@ -19456,7 +19495,7 @@
       </c>
       <c r="C435">
         <f t="shared" ca="1" si="23"/>
-        <v>532511</v>
+        <v>407849</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
@@ -19468,7 +19507,7 @@
       </c>
       <c r="C436">
         <f t="shared" ca="1" si="23"/>
-        <v>607820</v>
+        <v>438538</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
@@ -19480,7 +19519,7 @@
       </c>
       <c r="C437">
         <f t="shared" ca="1" si="23"/>
-        <v>399358</v>
+        <v>542850</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
@@ -19492,7 +19531,7 @@
       </c>
       <c r="C438">
         <f t="shared" ca="1" si="23"/>
-        <v>432626</v>
+        <v>594391</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
@@ -19504,7 +19543,7 @@
       </c>
       <c r="C439">
         <f t="shared" ca="1" si="23"/>
-        <v>553497</v>
+        <v>541127</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
@@ -19516,7 +19555,7 @@
       </c>
       <c r="C440">
         <f t="shared" ca="1" si="23"/>
-        <v>591190</v>
+        <v>598922</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
@@ -19528,7 +19567,7 @@
       </c>
       <c r="C441">
         <f t="shared" ca="1" si="23"/>
-        <v>506039</v>
+        <v>535898</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
@@ -19540,7 +19579,7 @@
       </c>
       <c r="C442">
         <f t="shared" ca="1" si="23"/>
-        <v>388046</v>
+        <v>349910</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
@@ -19552,7 +19591,7 @@
       </c>
       <c r="C443">
         <f t="shared" ca="1" si="23"/>
-        <v>540070</v>
+        <v>446276</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
@@ -19564,7 +19603,7 @@
       </c>
       <c r="C444">
         <f t="shared" ca="1" si="23"/>
-        <v>571189</v>
+        <v>385135</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
@@ -19576,7 +19615,7 @@
       </c>
       <c r="C445">
         <f t="shared" ca="1" si="23"/>
-        <v>347162</v>
+        <v>448693</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
@@ -19588,7 +19627,7 @@
       </c>
       <c r="C446">
         <f t="shared" ca="1" si="23"/>
-        <v>508128</v>
+        <v>393320</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
@@ -19600,7 +19639,7 @@
       </c>
       <c r="C447">
         <f t="shared" ca="1" si="23"/>
-        <v>516717</v>
+        <v>346275</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
@@ -19612,7 +19651,7 @@
       </c>
       <c r="C448">
         <f t="shared" ca="1" si="23"/>
-        <v>458259</v>
+        <v>614671</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
@@ -19624,7 +19663,7 @@
       </c>
       <c r="C449">
         <f t="shared" ca="1" si="23"/>
-        <v>419308</v>
+        <v>609654</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
@@ -19636,7 +19675,7 @@
       </c>
       <c r="C450">
         <f t="shared" ca="1" si="23"/>
-        <v>594696</v>
+        <v>367006</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
@@ -19648,7 +19687,7 @@
       </c>
       <c r="C451">
         <f t="shared" ca="1" si="23"/>
-        <v>464657</v>
+        <v>364868</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
@@ -19660,7 +19699,7 @@
       </c>
       <c r="C452">
         <f t="shared" ca="1" si="23"/>
-        <v>362830</v>
+        <v>499151</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
@@ -19672,7 +19711,7 @@
       </c>
       <c r="C453">
         <f t="shared" ca="1" si="23"/>
-        <v>430144</v>
+        <v>501440</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
@@ -19684,7 +19723,7 @@
       </c>
       <c r="C454">
         <f t="shared" ca="1" si="23"/>
-        <v>512173</v>
+        <v>376041</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
@@ -19696,7 +19735,7 @@
       </c>
       <c r="C455">
         <f t="shared" ca="1" si="23"/>
-        <v>624458</v>
+        <v>443849</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
@@ -19708,7 +19747,7 @@
       </c>
       <c r="C456">
         <f t="shared" ca="1" si="23"/>
-        <v>446672</v>
+        <v>579607</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
@@ -19720,7 +19759,7 @@
       </c>
       <c r="C457">
         <f t="shared" ca="1" si="23"/>
-        <v>584572</v>
+        <v>552998</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
@@ -19732,7 +19771,7 @@
       </c>
       <c r="C458">
         <f t="shared" ca="1" si="23"/>
-        <v>528099</v>
+        <v>477006</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
@@ -19744,7 +19783,7 @@
       </c>
       <c r="C459">
         <f t="shared" ca="1" si="23"/>
-        <v>535834</v>
+        <v>481965</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
@@ -19756,7 +19795,7 @@
       </c>
       <c r="C460">
         <f t="shared" ca="1" si="23"/>
-        <v>512575</v>
+        <v>530548</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
@@ -19768,7 +19807,7 @@
       </c>
       <c r="C461">
         <f t="shared" ca="1" si="23"/>
-        <v>405398</v>
+        <v>474329</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
@@ -19780,7 +19819,7 @@
       </c>
       <c r="C462">
         <f t="shared" ca="1" si="23"/>
-        <v>467927</v>
+        <v>532792</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
@@ -19792,7 +19831,7 @@
       </c>
       <c r="C463">
         <f t="shared" ca="1" si="23"/>
-        <v>421814</v>
+        <v>373882</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
@@ -19804,11 +19843,11 @@
       </c>
       <c r="C465">
         <f t="shared" ref="C465:D525" ca="1" si="24">RANDBETWEEN(345000,624900)</f>
-        <v>444476</v>
+        <v>551819</v>
       </c>
       <c r="D465">
         <f t="shared" ca="1" si="24"/>
-        <v>413091</v>
+        <v>505808</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
@@ -19820,7 +19859,7 @@
       </c>
       <c r="C466">
         <f t="shared" ca="1" si="24"/>
-        <v>455589</v>
+        <v>601125</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
@@ -19832,7 +19871,7 @@
       </c>
       <c r="C467">
         <f t="shared" ca="1" si="24"/>
-        <v>567348</v>
+        <v>575023</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
@@ -19844,7 +19883,7 @@
       </c>
       <c r="C468">
         <f t="shared" ca="1" si="24"/>
-        <v>510519</v>
+        <v>594306</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
@@ -19856,7 +19895,7 @@
       </c>
       <c r="C469">
         <f t="shared" ca="1" si="24"/>
-        <v>506423</v>
+        <v>409310</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
@@ -19868,7 +19907,7 @@
       </c>
       <c r="C470">
         <f t="shared" ca="1" si="24"/>
-        <v>387938</v>
+        <v>436749</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
@@ -19880,7 +19919,7 @@
       </c>
       <c r="C471">
         <f t="shared" ca="1" si="24"/>
-        <v>345719</v>
+        <v>488363</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
@@ -19892,7 +19931,7 @@
       </c>
       <c r="C472">
         <f t="shared" ca="1" si="24"/>
-        <v>554715</v>
+        <v>392951</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
@@ -19904,7 +19943,7 @@
       </c>
       <c r="C473">
         <f t="shared" ca="1" si="24"/>
-        <v>426374</v>
+        <v>600845</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
@@ -19916,7 +19955,7 @@
       </c>
       <c r="C474">
         <f t="shared" ca="1" si="24"/>
-        <v>501410</v>
+        <v>364496</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
@@ -19928,7 +19967,7 @@
       </c>
       <c r="C475">
         <f t="shared" ca="1" si="24"/>
-        <v>494656</v>
+        <v>440085</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
@@ -19940,7 +19979,7 @@
       </c>
       <c r="C476">
         <f t="shared" ca="1" si="24"/>
-        <v>469216</v>
+        <v>534957</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
@@ -19952,7 +19991,7 @@
       </c>
       <c r="C477">
         <f t="shared" ca="1" si="24"/>
-        <v>358075</v>
+        <v>373758</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
@@ -19964,7 +20003,7 @@
       </c>
       <c r="C478">
         <f t="shared" ca="1" si="24"/>
-        <v>449711</v>
+        <v>612497</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
@@ -19976,7 +20015,7 @@
       </c>
       <c r="C479">
         <f t="shared" ca="1" si="24"/>
-        <v>568584</v>
+        <v>369007</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
@@ -19988,7 +20027,7 @@
       </c>
       <c r="C480">
         <f t="shared" ca="1" si="24"/>
-        <v>437563</v>
+        <v>509498</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
@@ -20000,7 +20039,7 @@
       </c>
       <c r="C481">
         <f t="shared" ca="1" si="24"/>
-        <v>458594</v>
+        <v>501557</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
@@ -20012,7 +20051,7 @@
       </c>
       <c r="C482">
         <f t="shared" ca="1" si="24"/>
-        <v>576735</v>
+        <v>415827</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
@@ -20024,7 +20063,7 @@
       </c>
       <c r="C483">
         <f t="shared" ca="1" si="24"/>
-        <v>464604</v>
+        <v>385940</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
@@ -20036,7 +20075,7 @@
       </c>
       <c r="C484">
         <f t="shared" ca="1" si="24"/>
-        <v>618350</v>
+        <v>345405</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
@@ -20048,7 +20087,7 @@
       </c>
       <c r="C485">
         <f t="shared" ca="1" si="24"/>
-        <v>555858</v>
+        <v>521383</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
@@ -20060,7 +20099,7 @@
       </c>
       <c r="C486">
         <f t="shared" ca="1" si="24"/>
-        <v>402360</v>
+        <v>379521</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
@@ -20072,7 +20111,7 @@
       </c>
       <c r="C487">
         <f t="shared" ca="1" si="24"/>
-        <v>440020</v>
+        <v>393043</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
@@ -20084,7 +20123,7 @@
       </c>
       <c r="C488">
         <f t="shared" ca="1" si="24"/>
-        <v>620668</v>
+        <v>389538</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
@@ -20096,7 +20135,7 @@
       </c>
       <c r="C489">
         <f t="shared" ca="1" si="24"/>
-        <v>533473</v>
+        <v>470815</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
@@ -20108,7 +20147,7 @@
       </c>
       <c r="C490">
         <f t="shared" ca="1" si="24"/>
-        <v>463728</v>
+        <v>527911</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
@@ -20120,7 +20159,7 @@
       </c>
       <c r="C491">
         <f t="shared" ca="1" si="24"/>
-        <v>470447</v>
+        <v>411596</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
@@ -20132,7 +20171,7 @@
       </c>
       <c r="C492">
         <f t="shared" ca="1" si="24"/>
-        <v>526110</v>
+        <v>443361</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
@@ -20144,7 +20183,7 @@
       </c>
       <c r="C493">
         <f t="shared" ca="1" si="24"/>
-        <v>463503</v>
+        <v>525492</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
@@ -20156,7 +20195,7 @@
       </c>
       <c r="C494">
         <f t="shared" ca="1" si="24"/>
-        <v>506362</v>
+        <v>468514</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
@@ -20168,11 +20207,11 @@
       </c>
       <c r="C496">
         <f t="shared" ca="1" si="24"/>
-        <v>415585</v>
+        <v>452474</v>
       </c>
       <c r="D496">
         <f t="shared" ca="1" si="24"/>
-        <v>455291</v>
+        <v>540459</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
@@ -20184,7 +20223,7 @@
       </c>
       <c r="C497">
         <f t="shared" ca="1" si="24"/>
-        <v>387476</v>
+        <v>416265</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
@@ -20196,7 +20235,7 @@
       </c>
       <c r="C498">
         <f t="shared" ca="1" si="24"/>
-        <v>438685</v>
+        <v>448368</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
@@ -20208,7 +20247,7 @@
       </c>
       <c r="C499">
         <f t="shared" ca="1" si="24"/>
-        <v>419558</v>
+        <v>421437</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
@@ -20220,7 +20259,7 @@
       </c>
       <c r="C500">
         <f t="shared" ca="1" si="24"/>
-        <v>537001</v>
+        <v>593741</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
@@ -20232,7 +20271,7 @@
       </c>
       <c r="C501">
         <f t="shared" ca="1" si="24"/>
-        <v>568227</v>
+        <v>449470</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
@@ -20244,7 +20283,7 @@
       </c>
       <c r="C502">
         <f t="shared" ca="1" si="24"/>
-        <v>466007</v>
+        <v>427361</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
@@ -20256,7 +20295,7 @@
       </c>
       <c r="C503">
         <f t="shared" ca="1" si="24"/>
-        <v>438759</v>
+        <v>486917</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
@@ -20268,7 +20307,7 @@
       </c>
       <c r="C504">
         <f t="shared" ca="1" si="24"/>
-        <v>545490</v>
+        <v>554832</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
@@ -20280,7 +20319,7 @@
       </c>
       <c r="C505">
         <f t="shared" ca="1" si="24"/>
-        <v>509156</v>
+        <v>438259</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
@@ -20292,7 +20331,7 @@
       </c>
       <c r="C506">
         <f t="shared" ca="1" si="24"/>
-        <v>485936</v>
+        <v>439716</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
@@ -20304,7 +20343,7 @@
       </c>
       <c r="C507">
         <f t="shared" ca="1" si="24"/>
-        <v>447403</v>
+        <v>606236</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
@@ -20316,7 +20355,7 @@
       </c>
       <c r="C508">
         <f t="shared" ca="1" si="24"/>
-        <v>606636</v>
+        <v>475520</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
@@ -20328,7 +20367,7 @@
       </c>
       <c r="C509">
         <f t="shared" ca="1" si="24"/>
-        <v>477096</v>
+        <v>577139</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
@@ -20340,7 +20379,7 @@
       </c>
       <c r="C510">
         <f t="shared" ca="1" si="24"/>
-        <v>490094</v>
+        <v>583256</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
@@ -20352,7 +20391,7 @@
       </c>
       <c r="C511">
         <f t="shared" ca="1" si="24"/>
-        <v>543662</v>
+        <v>548180</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
@@ -20364,7 +20403,7 @@
       </c>
       <c r="C512">
         <f t="shared" ca="1" si="24"/>
-        <v>498963</v>
+        <v>451564</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
@@ -20376,7 +20415,7 @@
       </c>
       <c r="C513">
         <f t="shared" ca="1" si="24"/>
-        <v>525999</v>
+        <v>426012</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
@@ -20388,7 +20427,7 @@
       </c>
       <c r="C514">
         <f t="shared" ca="1" si="24"/>
-        <v>612435</v>
+        <v>436349</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
@@ -20400,7 +20439,7 @@
       </c>
       <c r="C515">
         <f t="shared" ca="1" si="24"/>
-        <v>528595</v>
+        <v>554430</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
@@ -20412,7 +20451,7 @@
       </c>
       <c r="C516">
         <f t="shared" ca="1" si="24"/>
-        <v>443259</v>
+        <v>565315</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
@@ -20424,7 +20463,7 @@
       </c>
       <c r="C517">
         <f t="shared" ca="1" si="24"/>
-        <v>456131</v>
+        <v>538657</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
@@ -20436,7 +20475,7 @@
       </c>
       <c r="C518">
         <f t="shared" ca="1" si="24"/>
-        <v>584614</v>
+        <v>493946</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
@@ -20448,7 +20487,7 @@
       </c>
       <c r="C519">
         <f t="shared" ca="1" si="24"/>
-        <v>522214</v>
+        <v>555582</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
@@ -20460,7 +20499,7 @@
       </c>
       <c r="C520">
         <f t="shared" ca="1" si="24"/>
-        <v>358096</v>
+        <v>446979</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
@@ -20472,7 +20511,7 @@
       </c>
       <c r="C521">
         <f t="shared" ca="1" si="24"/>
-        <v>452899</v>
+        <v>549093</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
@@ -20484,7 +20523,7 @@
       </c>
       <c r="C522">
         <f t="shared" ca="1" si="24"/>
-        <v>584763</v>
+        <v>513261</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
@@ -20496,7 +20535,7 @@
       </c>
       <c r="C523">
         <f t="shared" ca="1" si="24"/>
-        <v>532727</v>
+        <v>590076</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
@@ -20508,7 +20547,7 @@
       </c>
       <c r="C524">
         <f t="shared" ca="1" si="24"/>
-        <v>448503</v>
+        <v>472513</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
@@ -20520,7 +20559,7 @@
       </c>
       <c r="C525">
         <f t="shared" ca="1" si="24"/>
-        <v>449353</v>
+        <v>434159</v>
       </c>
     </row>
     <row r="527" spans="1:4" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -20537,7 +20576,7 @@
       </c>
       <c r="D528">
         <f t="shared" ref="D528:D548" ca="1" si="25">RANDBETWEEN(345000,624900)</f>
-        <v>456122</v>
+        <v>469340</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.25">
@@ -20549,7 +20588,7 @@
       </c>
       <c r="D529">
         <f t="shared" ca="1" si="25"/>
-        <v>615968</v>
+        <v>453628</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
@@ -20561,7 +20600,7 @@
       </c>
       <c r="D530">
         <f t="shared" ca="1" si="25"/>
-        <v>373920</v>
+        <v>368279</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.25">
@@ -20573,7 +20612,7 @@
       </c>
       <c r="D531">
         <f t="shared" ca="1" si="25"/>
-        <v>392447</v>
+        <v>540564</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.25">
@@ -20585,7 +20624,7 @@
       </c>
       <c r="D532">
         <f t="shared" ca="1" si="25"/>
-        <v>569116</v>
+        <v>562842</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.25">
@@ -20597,7 +20636,7 @@
       </c>
       <c r="D533">
         <f t="shared" ca="1" si="25"/>
-        <v>528287</v>
+        <v>473580</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.25">
@@ -20609,7 +20648,7 @@
       </c>
       <c r="D534">
         <f t="shared" ca="1" si="25"/>
-        <v>528313</v>
+        <v>463212</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.25">
@@ -20621,7 +20660,7 @@
       </c>
       <c r="D535">
         <f t="shared" ca="1" si="25"/>
-        <v>425898</v>
+        <v>596686</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.25">
@@ -20633,7 +20672,7 @@
       </c>
       <c r="D536">
         <f t="shared" ca="1" si="25"/>
-        <v>578002</v>
+        <v>577710</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.25">
@@ -20645,7 +20684,7 @@
       </c>
       <c r="D537">
         <f t="shared" ca="1" si="25"/>
-        <v>441327</v>
+        <v>428957</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.25">
@@ -20657,7 +20696,7 @@
       </c>
       <c r="D539">
         <f t="shared" ca="1" si="25"/>
-        <v>367614</v>
+        <v>527743</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.25">
@@ -20669,7 +20708,7 @@
       </c>
       <c r="D540">
         <f t="shared" ca="1" si="25"/>
-        <v>405491</v>
+        <v>441878</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.25">
@@ -20681,7 +20720,7 @@
       </c>
       <c r="D541">
         <f t="shared" ca="1" si="25"/>
-        <v>535219</v>
+        <v>591384</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.25">
@@ -20693,7 +20732,7 @@
       </c>
       <c r="D542">
         <f t="shared" ca="1" si="25"/>
-        <v>361864</v>
+        <v>431125</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.25">
@@ -20705,7 +20744,7 @@
       </c>
       <c r="D543">
         <f t="shared" ca="1" si="25"/>
-        <v>559227</v>
+        <v>353578</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.25">
@@ -20717,7 +20756,7 @@
       </c>
       <c r="D544">
         <f t="shared" ca="1" si="25"/>
-        <v>505121</v>
+        <v>560921</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.25">
@@ -20729,7 +20768,7 @@
       </c>
       <c r="D545">
         <f t="shared" ca="1" si="25"/>
-        <v>381724</v>
+        <v>575202</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.25">
@@ -20741,7 +20780,7 @@
       </c>
       <c r="D546">
         <f t="shared" ca="1" si="25"/>
-        <v>413571</v>
+        <v>392981</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.25">
@@ -20753,7 +20792,7 @@
       </c>
       <c r="D547">
         <f t="shared" ca="1" si="25"/>
-        <v>423438</v>
+        <v>565986</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.25">
@@ -20765,7 +20804,7 @@
       </c>
       <c r="D548">
         <f t="shared" ca="1" si="25"/>
-        <v>400036</v>
+        <v>419251</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.25">
@@ -20777,7 +20816,7 @@
       </c>
       <c r="D550">
         <f t="shared" ref="D550:D559" ca="1" si="26">RANDBETWEEN(345000,624900)</f>
-        <v>591278</v>
+        <v>366473</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.25">
@@ -20789,7 +20828,7 @@
       </c>
       <c r="D551">
         <f t="shared" ca="1" si="26"/>
-        <v>438993</v>
+        <v>593328</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.25">
@@ -20801,7 +20840,7 @@
       </c>
       <c r="D552">
         <f t="shared" ca="1" si="26"/>
-        <v>461592</v>
+        <v>411923</v>
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.25">
@@ -20813,7 +20852,7 @@
       </c>
       <c r="D553">
         <f t="shared" ca="1" si="26"/>
-        <v>520576</v>
+        <v>529160</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.25">
@@ -20825,7 +20864,7 @@
       </c>
       <c r="D554">
         <f t="shared" ca="1" si="26"/>
-        <v>530884</v>
+        <v>399759</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.25">
@@ -20837,7 +20876,7 @@
       </c>
       <c r="D555">
         <f t="shared" ca="1" si="26"/>
-        <v>470993</v>
+        <v>607352</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.25">
@@ -20849,7 +20888,7 @@
       </c>
       <c r="D556">
         <f t="shared" ca="1" si="26"/>
-        <v>361710</v>
+        <v>359564</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.25">
@@ -20861,7 +20900,7 @@
       </c>
       <c r="D557">
         <f t="shared" ca="1" si="26"/>
-        <v>539696</v>
+        <v>516149</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.25">
@@ -20873,7 +20912,7 @@
       </c>
       <c r="D558">
         <f t="shared" ca="1" si="26"/>
-        <v>407323</v>
+        <v>403645</v>
       </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.25">
@@ -20885,7 +20924,7 @@
       </c>
       <c r="D559">
         <f t="shared" ca="1" si="26"/>
-        <v>411882</v>
+        <v>549573</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.25">
@@ -20897,7 +20936,7 @@
       </c>
       <c r="D561">
         <f t="shared" ref="D561:D570" ca="1" si="27">RANDBETWEEN(345000,624900)</f>
-        <v>524112</v>
+        <v>590241</v>
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.25">
@@ -20909,7 +20948,7 @@
       </c>
       <c r="D562">
         <f t="shared" ca="1" si="27"/>
-        <v>385323</v>
+        <v>527535</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.25">
@@ -20921,7 +20960,7 @@
       </c>
       <c r="D563">
         <f t="shared" ca="1" si="27"/>
-        <v>580918</v>
+        <v>485526</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.25">
@@ -20933,7 +20972,7 @@
       </c>
       <c r="D564">
         <f t="shared" ca="1" si="27"/>
-        <v>602597</v>
+        <v>459587</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.25">
@@ -20945,7 +20984,7 @@
       </c>
       <c r="D565">
         <f t="shared" ca="1" si="27"/>
-        <v>396682</v>
+        <v>420090</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.25">
@@ -20957,7 +20996,7 @@
       </c>
       <c r="D566">
         <f t="shared" ca="1" si="27"/>
-        <v>490546</v>
+        <v>488679</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.25">
@@ -20969,7 +21008,7 @@
       </c>
       <c r="D567">
         <f t="shared" ca="1" si="27"/>
-        <v>346953</v>
+        <v>406697</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.25">
@@ -20981,7 +21020,7 @@
       </c>
       <c r="D568">
         <f t="shared" ca="1" si="27"/>
-        <v>365957</v>
+        <v>450898</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.25">
@@ -20993,7 +21032,7 @@
       </c>
       <c r="D569">
         <f t="shared" ca="1" si="27"/>
-        <v>488468</v>
+        <v>363069</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.25">
@@ -21005,7 +21044,7 @@
       </c>
       <c r="D570">
         <f t="shared" ca="1" si="27"/>
-        <v>377071</v>
+        <v>358848</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.25">
@@ -21017,7 +21056,7 @@
       </c>
       <c r="D572">
         <f t="shared" ref="D572:D581" ca="1" si="28">RANDBETWEEN(345000,624900)</f>
-        <v>587865</v>
+        <v>518795</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.25">
@@ -21029,7 +21068,7 @@
       </c>
       <c r="D573">
         <f t="shared" ca="1" si="28"/>
-        <v>586915</v>
+        <v>351146</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.25">
@@ -21041,7 +21080,7 @@
       </c>
       <c r="D574">
         <f t="shared" ca="1" si="28"/>
-        <v>469366</v>
+        <v>430590</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.25">
@@ -21053,7 +21092,7 @@
       </c>
       <c r="D575">
         <f t="shared" ca="1" si="28"/>
-        <v>373927</v>
+        <v>352320</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.25">
@@ -21065,7 +21104,7 @@
       </c>
       <c r="D576">
         <f t="shared" ca="1" si="28"/>
-        <v>543267</v>
+        <v>500176</v>
       </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.25">
@@ -21077,7 +21116,7 @@
       </c>
       <c r="D577">
         <f t="shared" ca="1" si="28"/>
-        <v>426697</v>
+        <v>585930</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.25">
@@ -21089,7 +21128,7 @@
       </c>
       <c r="D578">
         <f t="shared" ca="1" si="28"/>
-        <v>616886</v>
+        <v>376821</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.25">
@@ -21101,7 +21140,7 @@
       </c>
       <c r="D579">
         <f t="shared" ca="1" si="28"/>
-        <v>579411</v>
+        <v>587082</v>
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.25">
@@ -21113,7 +21152,7 @@
       </c>
       <c r="D580">
         <f t="shared" ca="1" si="28"/>
-        <v>532560</v>
+        <v>428431</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.25">
@@ -21125,7 +21164,7 @@
       </c>
       <c r="D581">
         <f t="shared" ca="1" si="28"/>
-        <v>359172</v>
+        <v>450890</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.25">
@@ -21137,7 +21176,7 @@
       </c>
       <c r="D583">
         <f t="shared" ref="D583:D592" ca="1" si="29">RANDBETWEEN(345000,624900)</f>
-        <v>534650</v>
+        <v>426116</v>
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.25">
@@ -21149,7 +21188,7 @@
       </c>
       <c r="D584">
         <f t="shared" ca="1" si="29"/>
-        <v>624161</v>
+        <v>435476</v>
       </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.25">
@@ -21161,7 +21200,7 @@
       </c>
       <c r="D585">
         <f t="shared" ca="1" si="29"/>
-        <v>466353</v>
+        <v>423089</v>
       </c>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.25">
@@ -21173,7 +21212,7 @@
       </c>
       <c r="D586">
         <f t="shared" ca="1" si="29"/>
-        <v>485247</v>
+        <v>586566</v>
       </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.25">
@@ -21185,7 +21224,7 @@
       </c>
       <c r="D587">
         <f t="shared" ca="1" si="29"/>
-        <v>470496</v>
+        <v>382010</v>
       </c>
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.25">
@@ -21197,7 +21236,7 @@
       </c>
       <c r="D588">
         <f t="shared" ca="1" si="29"/>
-        <v>444165</v>
+        <v>534187</v>
       </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.25">
@@ -21209,7 +21248,7 @@
       </c>
       <c r="D589">
         <f t="shared" ca="1" si="29"/>
-        <v>503512</v>
+        <v>519130</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.25">
@@ -21221,7 +21260,7 @@
       </c>
       <c r="D590">
         <f t="shared" ca="1" si="29"/>
-        <v>407237</v>
+        <v>396386</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.25">
@@ -21233,7 +21272,7 @@
       </c>
       <c r="D591">
         <f t="shared" ca="1" si="29"/>
-        <v>403178</v>
+        <v>615796</v>
       </c>
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.25">
@@ -21245,7 +21284,7 @@
       </c>
       <c r="D592">
         <f t="shared" ca="1" si="29"/>
-        <v>480555</v>
+        <v>447348</v>
       </c>
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.25">
@@ -21257,7 +21296,7 @@
       </c>
       <c r="D594">
         <f t="shared" ref="D594:D603" ca="1" si="30">RANDBETWEEN(345000,624900)</f>
-        <v>551077</v>
+        <v>623794</v>
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.25">
@@ -21269,7 +21308,7 @@
       </c>
       <c r="D595">
         <f t="shared" ca="1" si="30"/>
-        <v>474739</v>
+        <v>452955</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.25">
@@ -21281,7 +21320,7 @@
       </c>
       <c r="D596">
         <f t="shared" ca="1" si="30"/>
-        <v>488629</v>
+        <v>584169</v>
       </c>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.25">
@@ -21293,7 +21332,7 @@
       </c>
       <c r="D597">
         <f t="shared" ca="1" si="30"/>
-        <v>460532</v>
+        <v>536622</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.25">
@@ -21305,7 +21344,7 @@
       </c>
       <c r="D598">
         <f t="shared" ca="1" si="30"/>
-        <v>376215</v>
+        <v>561780</v>
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.25">
@@ -21317,7 +21356,7 @@
       </c>
       <c r="D599">
         <f t="shared" ca="1" si="30"/>
-        <v>416184</v>
+        <v>386962</v>
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.25">
@@ -21329,7 +21368,7 @@
       </c>
       <c r="D600">
         <f t="shared" ca="1" si="30"/>
-        <v>577516</v>
+        <v>367459</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.25">
@@ -21341,7 +21380,7 @@
       </c>
       <c r="D601">
         <f t="shared" ca="1" si="30"/>
-        <v>499327</v>
+        <v>374122</v>
       </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.25">
@@ -21353,7 +21392,7 @@
       </c>
       <c r="D602">
         <f t="shared" ca="1" si="30"/>
-        <v>429361</v>
+        <v>575011</v>
       </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.25">
@@ -21365,7 +21404,7 @@
       </c>
       <c r="D603">
         <f t="shared" ca="1" si="30"/>
-        <v>624482</v>
+        <v>599607</v>
       </c>
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.25">
@@ -21377,11 +21416,11 @@
       </c>
       <c r="C606">
         <f t="shared" ref="C606:D669" ca="1" si="31">RANDBETWEEN(345000,624900)</f>
-        <v>422887</v>
+        <v>418579</v>
       </c>
       <c r="D606">
         <f t="shared" ca="1" si="31"/>
-        <v>544662</v>
+        <v>463877</v>
       </c>
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.25">
@@ -21393,7 +21432,7 @@
       </c>
       <c r="C607">
         <f t="shared" ca="1" si="31"/>
-        <v>494706</v>
+        <v>382335</v>
       </c>
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.25">
@@ -21405,7 +21444,7 @@
       </c>
       <c r="C608">
         <f t="shared" ca="1" si="31"/>
-        <v>576851</v>
+        <v>585787</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.25">
@@ -21417,7 +21456,7 @@
       </c>
       <c r="C609">
         <f t="shared" ca="1" si="31"/>
-        <v>384904</v>
+        <v>557968</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.25">
@@ -21429,7 +21468,7 @@
       </c>
       <c r="C610">
         <f t="shared" ca="1" si="31"/>
-        <v>392460</v>
+        <v>355845</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.25">
@@ -21441,7 +21480,7 @@
       </c>
       <c r="C611">
         <f t="shared" ca="1" si="31"/>
-        <v>561332</v>
+        <v>355495</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.25">
@@ -21453,7 +21492,7 @@
       </c>
       <c r="C612">
         <f t="shared" ca="1" si="31"/>
-        <v>509758</v>
+        <v>381736</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.25">
@@ -21465,7 +21504,7 @@
       </c>
       <c r="C613">
         <f t="shared" ca="1" si="31"/>
-        <v>484629</v>
+        <v>395288</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.25">
@@ -21477,7 +21516,7 @@
       </c>
       <c r="C614">
         <f t="shared" ca="1" si="31"/>
-        <v>541796</v>
+        <v>377262</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.25">
@@ -21489,7 +21528,7 @@
       </c>
       <c r="C615">
         <f t="shared" ca="1" si="31"/>
-        <v>540018</v>
+        <v>582499</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.25">
@@ -21501,7 +21540,7 @@
       </c>
       <c r="C616">
         <f t="shared" ca="1" si="31"/>
-        <v>451243</v>
+        <v>593323</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.25">
@@ -21513,7 +21552,7 @@
       </c>
       <c r="C617">
         <f t="shared" ca="1" si="31"/>
-        <v>477033</v>
+        <v>454826</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.25">
@@ -21525,7 +21564,7 @@
       </c>
       <c r="C618">
         <f t="shared" ca="1" si="31"/>
-        <v>428397</v>
+        <v>444771</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.25">
@@ -21537,7 +21576,7 @@
       </c>
       <c r="C619">
         <f t="shared" ca="1" si="31"/>
-        <v>371400</v>
+        <v>408534</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.25">
@@ -21549,7 +21588,7 @@
       </c>
       <c r="C620">
         <f t="shared" ca="1" si="31"/>
-        <v>599557</v>
+        <v>600982</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.25">
@@ -21561,7 +21600,7 @@
       </c>
       <c r="C621">
         <f t="shared" ca="1" si="31"/>
-        <v>487325</v>
+        <v>397028</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.25">
@@ -21573,7 +21612,7 @@
       </c>
       <c r="C622">
         <f t="shared" ca="1" si="31"/>
-        <v>480149</v>
+        <v>442438</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.25">
@@ -21585,7 +21624,7 @@
       </c>
       <c r="C623">
         <f t="shared" ca="1" si="31"/>
-        <v>519088</v>
+        <v>587608</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.25">
@@ -21597,7 +21636,7 @@
       </c>
       <c r="C624">
         <f t="shared" ca="1" si="31"/>
-        <v>479216</v>
+        <v>475789</v>
       </c>
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.25">
@@ -21609,7 +21648,7 @@
       </c>
       <c r="C625">
         <f t="shared" ca="1" si="31"/>
-        <v>529105</v>
+        <v>380923</v>
       </c>
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.25">
@@ -21621,7 +21660,7 @@
       </c>
       <c r="C626">
         <f t="shared" ca="1" si="31"/>
-        <v>495243</v>
+        <v>540866</v>
       </c>
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.25">
@@ -21633,7 +21672,7 @@
       </c>
       <c r="C627">
         <f t="shared" ca="1" si="31"/>
-        <v>412229</v>
+        <v>405501</v>
       </c>
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.25">
@@ -21645,7 +21684,7 @@
       </c>
       <c r="C628">
         <f t="shared" ca="1" si="31"/>
-        <v>497576</v>
+        <v>524441</v>
       </c>
     </row>
     <row r="629" spans="1:4" x14ac:dyDescent="0.25">
@@ -21657,7 +21696,7 @@
       </c>
       <c r="C629">
         <f t="shared" ca="1" si="31"/>
-        <v>454850</v>
+        <v>612967</v>
       </c>
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.25">
@@ -21669,7 +21708,7 @@
       </c>
       <c r="C630">
         <f t="shared" ca="1" si="31"/>
-        <v>430689</v>
+        <v>610084</v>
       </c>
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.25">
@@ -21681,7 +21720,7 @@
       </c>
       <c r="C631">
         <f t="shared" ca="1" si="31"/>
-        <v>592120</v>
+        <v>407938</v>
       </c>
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.25">
@@ -21693,7 +21732,7 @@
       </c>
       <c r="C632">
         <f t="shared" ca="1" si="31"/>
-        <v>391723</v>
+        <v>551412</v>
       </c>
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.25">
@@ -21705,7 +21744,7 @@
       </c>
       <c r="C633">
         <f t="shared" ca="1" si="31"/>
-        <v>404512</v>
+        <v>603290</v>
       </c>
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.25">
@@ -21717,7 +21756,7 @@
       </c>
       <c r="C634">
         <f t="shared" ca="1" si="31"/>
-        <v>441497</v>
+        <v>542505</v>
       </c>
     </row>
     <row r="635" spans="1:4" x14ac:dyDescent="0.25">
@@ -21729,7 +21768,7 @@
       </c>
       <c r="C635">
         <f t="shared" ca="1" si="31"/>
-        <v>434403</v>
+        <v>435503</v>
       </c>
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.25">
@@ -21741,11 +21780,11 @@
       </c>
       <c r="C637">
         <f t="shared" ca="1" si="31"/>
-        <v>531685</v>
+        <v>596430</v>
       </c>
       <c r="D637">
         <f t="shared" ca="1" si="31"/>
-        <v>477865</v>
+        <v>440996</v>
       </c>
     </row>
     <row r="638" spans="1:4" x14ac:dyDescent="0.25">
@@ -21757,7 +21796,7 @@
       </c>
       <c r="C638">
         <f t="shared" ca="1" si="31"/>
-        <v>531151</v>
+        <v>537759</v>
       </c>
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.25">
@@ -21769,7 +21808,7 @@
       </c>
       <c r="C639">
         <f t="shared" ca="1" si="31"/>
-        <v>614690</v>
+        <v>426396</v>
       </c>
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.25">
@@ -21781,7 +21820,7 @@
       </c>
       <c r="C640">
         <f t="shared" ca="1" si="31"/>
-        <v>519399</v>
+        <v>492046</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.25">
@@ -21793,7 +21832,7 @@
       </c>
       <c r="C641">
         <f t="shared" ca="1" si="31"/>
-        <v>364492</v>
+        <v>572627</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.25">
@@ -21805,7 +21844,7 @@
       </c>
       <c r="C642">
         <f t="shared" ca="1" si="31"/>
-        <v>573414</v>
+        <v>361520</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.25">
@@ -21817,7 +21856,7 @@
       </c>
       <c r="C643">
         <f t="shared" ca="1" si="31"/>
-        <v>349794</v>
+        <v>498333</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.25">
@@ -21829,7 +21868,7 @@
       </c>
       <c r="C644">
         <f t="shared" ca="1" si="31"/>
-        <v>558170</v>
+        <v>597972</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.25">
@@ -21841,7 +21880,7 @@
       </c>
       <c r="C645">
         <f t="shared" ca="1" si="31"/>
-        <v>404997</v>
+        <v>397612</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.25">
@@ -21853,7 +21892,7 @@
       </c>
       <c r="C646">
         <f t="shared" ca="1" si="31"/>
-        <v>621554</v>
+        <v>563964</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.25">
@@ -21865,7 +21904,7 @@
       </c>
       <c r="C647">
         <f t="shared" ca="1" si="31"/>
-        <v>388329</v>
+        <v>596383</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.25">
@@ -21877,7 +21916,7 @@
       </c>
       <c r="C648">
         <f t="shared" ca="1" si="31"/>
-        <v>541103</v>
+        <v>568162</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.25">
@@ -21889,7 +21928,7 @@
       </c>
       <c r="C649">
         <f t="shared" ca="1" si="31"/>
-        <v>422761</v>
+        <v>350259</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.25">
@@ -21901,7 +21940,7 @@
       </c>
       <c r="C650">
         <f t="shared" ca="1" si="31"/>
-        <v>531286</v>
+        <v>601771</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.25">
@@ -21913,7 +21952,7 @@
       </c>
       <c r="C651">
         <f t="shared" ca="1" si="31"/>
-        <v>480794</v>
+        <v>564432</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.25">
@@ -21925,7 +21964,7 @@
       </c>
       <c r="C652">
         <f t="shared" ca="1" si="31"/>
-        <v>461729</v>
+        <v>560615</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.25">
@@ -21937,7 +21976,7 @@
       </c>
       <c r="C653">
         <f t="shared" ca="1" si="31"/>
-        <v>513866</v>
+        <v>621139</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.25">
@@ -21949,7 +21988,7 @@
       </c>
       <c r="C654">
         <f t="shared" ca="1" si="31"/>
-        <v>602485</v>
+        <v>527944</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.25">
@@ -21961,7 +22000,7 @@
       </c>
       <c r="C655">
         <f t="shared" ca="1" si="31"/>
-        <v>482880</v>
+        <v>591165</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.25">
@@ -21973,7 +22012,7 @@
       </c>
       <c r="C656">
         <f t="shared" ca="1" si="31"/>
-        <v>548546</v>
+        <v>352356</v>
       </c>
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.25">
@@ -21985,7 +22024,7 @@
       </c>
       <c r="C657">
         <f t="shared" ca="1" si="31"/>
-        <v>432708</v>
+        <v>457481</v>
       </c>
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.25">
@@ -21997,7 +22036,7 @@
       </c>
       <c r="C658">
         <f t="shared" ca="1" si="31"/>
-        <v>589692</v>
+        <v>537162</v>
       </c>
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.25">
@@ -22009,7 +22048,7 @@
       </c>
       <c r="C659">
         <f t="shared" ca="1" si="31"/>
-        <v>514579</v>
+        <v>440135</v>
       </c>
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.25">
@@ -22021,7 +22060,7 @@
       </c>
       <c r="C660">
         <f t="shared" ca="1" si="31"/>
-        <v>418586</v>
+        <v>507224</v>
       </c>
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.25">
@@ -22033,7 +22072,7 @@
       </c>
       <c r="C661">
         <f t="shared" ca="1" si="31"/>
-        <v>366843</v>
+        <v>612847</v>
       </c>
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.25">
@@ -22045,7 +22084,7 @@
       </c>
       <c r="C662">
         <f t="shared" ca="1" si="31"/>
-        <v>621394</v>
+        <v>505693</v>
       </c>
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.25">
@@ -22057,7 +22096,7 @@
       </c>
       <c r="C663">
         <f t="shared" ca="1" si="31"/>
-        <v>512642</v>
+        <v>386791</v>
       </c>
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.25">
@@ -22069,7 +22108,7 @@
       </c>
       <c r="C664">
         <f t="shared" ca="1" si="31"/>
-        <v>534074</v>
+        <v>470521</v>
       </c>
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.25">
@@ -22081,7 +22120,7 @@
       </c>
       <c r="C665">
         <f t="shared" ca="1" si="31"/>
-        <v>467988</v>
+        <v>564053</v>
       </c>
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.25">
@@ -22093,7 +22132,7 @@
       </c>
       <c r="C666">
         <f t="shared" ca="1" si="31"/>
-        <v>461166</v>
+        <v>607697</v>
       </c>
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.25">
@@ -22105,11 +22144,11 @@
       </c>
       <c r="C668">
         <f t="shared" ca="1" si="31"/>
-        <v>523857</v>
+        <v>563392</v>
       </c>
       <c r="D668">
         <f t="shared" ca="1" si="31"/>
-        <v>417459</v>
+        <v>372382</v>
       </c>
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.25">
@@ -22121,7 +22160,7 @@
       </c>
       <c r="C669">
         <f t="shared" ca="1" si="31"/>
-        <v>589358</v>
+        <v>361813</v>
       </c>
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.25">
@@ -22133,7 +22172,7 @@
       </c>
       <c r="C670">
         <f t="shared" ref="C670:C697" ca="1" si="32">RANDBETWEEN(345000,624900)</f>
-        <v>526230</v>
+        <v>481039</v>
       </c>
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.25">
@@ -22145,7 +22184,7 @@
       </c>
       <c r="C671">
         <f t="shared" ca="1" si="32"/>
-        <v>379310</v>
+        <v>475853</v>
       </c>
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.25">
@@ -22157,7 +22196,7 @@
       </c>
       <c r="C672">
         <f t="shared" ca="1" si="32"/>
-        <v>563051</v>
+        <v>352935</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.25">
@@ -22169,7 +22208,7 @@
       </c>
       <c r="C673">
         <f t="shared" ca="1" si="32"/>
-        <v>525134</v>
+        <v>546844</v>
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.25">
@@ -22181,7 +22220,7 @@
       </c>
       <c r="C674">
         <f t="shared" ca="1" si="32"/>
-        <v>549499</v>
+        <v>538405</v>
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.25">
@@ -22193,7 +22232,7 @@
       </c>
       <c r="C675">
         <f t="shared" ca="1" si="32"/>
-        <v>494291</v>
+        <v>428813</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.25">
@@ -22205,7 +22244,7 @@
       </c>
       <c r="C676">
         <f t="shared" ca="1" si="32"/>
-        <v>419315</v>
+        <v>349237</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.25">
@@ -22217,7 +22256,7 @@
       </c>
       <c r="C677">
         <f t="shared" ca="1" si="32"/>
-        <v>605439</v>
+        <v>424340</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.25">
@@ -22229,7 +22268,7 @@
       </c>
       <c r="C678">
         <f t="shared" ca="1" si="32"/>
-        <v>587160</v>
+        <v>507924</v>
       </c>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.25">
@@ -22241,7 +22280,7 @@
       </c>
       <c r="C679">
         <f t="shared" ca="1" si="32"/>
-        <v>478503</v>
+        <v>398832</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.25">
@@ -22253,7 +22292,7 @@
       </c>
       <c r="C680">
         <f t="shared" ca="1" si="32"/>
-        <v>578781</v>
+        <v>367830</v>
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.25">
@@ -22265,7 +22304,7 @@
       </c>
       <c r="C681">
         <f t="shared" ca="1" si="32"/>
-        <v>572109</v>
+        <v>461280</v>
       </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.25">
@@ -22277,7 +22316,7 @@
       </c>
       <c r="C682">
         <f t="shared" ca="1" si="32"/>
-        <v>358298</v>
+        <v>513716</v>
       </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.25">
@@ -22289,7 +22328,7 @@
       </c>
       <c r="C683">
         <f t="shared" ca="1" si="32"/>
-        <v>594159</v>
+        <v>454056</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.25">
@@ -22301,7 +22340,7 @@
       </c>
       <c r="C684">
         <f t="shared" ca="1" si="32"/>
-        <v>505720</v>
+        <v>382358</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.25">
@@ -22313,7 +22352,7 @@
       </c>
       <c r="C685">
         <f t="shared" ca="1" si="32"/>
-        <v>574365</v>
+        <v>404776</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.25">
@@ -22325,7 +22364,7 @@
       </c>
       <c r="C686">
         <f t="shared" ca="1" si="32"/>
-        <v>580497</v>
+        <v>380593</v>
       </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.25">
@@ -22337,7 +22376,7 @@
       </c>
       <c r="C687">
         <f t="shared" ca="1" si="32"/>
-        <v>416065</v>
+        <v>487798</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.25">
@@ -22349,7 +22388,7 @@
       </c>
       <c r="C688">
         <f t="shared" ca="1" si="32"/>
-        <v>358200</v>
+        <v>499111</v>
       </c>
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.25">
@@ -22361,7 +22400,7 @@
       </c>
       <c r="C689">
         <f t="shared" ca="1" si="32"/>
-        <v>425792</v>
+        <v>610366</v>
       </c>
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.25">
@@ -22373,7 +22412,7 @@
       </c>
       <c r="C690">
         <f t="shared" ca="1" si="32"/>
-        <v>567449</v>
+        <v>354071</v>
       </c>
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.25">
@@ -22385,7 +22424,7 @@
       </c>
       <c r="C691">
         <f t="shared" ca="1" si="32"/>
-        <v>493843</v>
+        <v>529616</v>
       </c>
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.25">
@@ -22397,7 +22436,7 @@
       </c>
       <c r="C692">
         <f t="shared" ca="1" si="32"/>
-        <v>456090</v>
+        <v>438810</v>
       </c>
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.25">
@@ -22409,7 +22448,7 @@
       </c>
       <c r="C693">
         <f t="shared" ca="1" si="32"/>
-        <v>603233</v>
+        <v>460987</v>
       </c>
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.25">
@@ -22421,7 +22460,7 @@
       </c>
       <c r="C694">
         <f t="shared" ca="1" si="32"/>
-        <v>444734</v>
+        <v>546234</v>
       </c>
     </row>
     <row r="695" spans="1:4" x14ac:dyDescent="0.25">
@@ -22433,7 +22472,7 @@
       </c>
       <c r="C695">
         <f t="shared" ca="1" si="32"/>
-        <v>402425</v>
+        <v>470327</v>
       </c>
     </row>
     <row r="696" spans="1:4" x14ac:dyDescent="0.25">
@@ -22445,7 +22484,7 @@
       </c>
       <c r="C696">
         <f t="shared" ca="1" si="32"/>
-        <v>398130</v>
+        <v>537257</v>
       </c>
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.25">
@@ -22457,7 +22496,7 @@
       </c>
       <c r="C697">
         <f t="shared" ca="1" si="32"/>
-        <v>496890</v>
+        <v>383797</v>
       </c>
     </row>
     <row r="699" spans="1:4" x14ac:dyDescent="0.25">
@@ -22469,11 +22508,11 @@
       </c>
       <c r="C699">
         <f t="shared" ref="C699:D728" ca="1" si="33">RANDBETWEEN(345000,624900)</f>
-        <v>497590</v>
+        <v>491746</v>
       </c>
       <c r="D699">
         <f t="shared" ca="1" si="33"/>
-        <v>399135</v>
+        <v>360585</v>
       </c>
     </row>
     <row r="700" spans="1:4" x14ac:dyDescent="0.25">
@@ -22485,7 +22524,7 @@
       </c>
       <c r="C700">
         <f t="shared" ca="1" si="33"/>
-        <v>582853</v>
+        <v>507432</v>
       </c>
     </row>
     <row r="701" spans="1:4" x14ac:dyDescent="0.25">
@@ -22497,7 +22536,7 @@
       </c>
       <c r="C701">
         <f t="shared" ca="1" si="33"/>
-        <v>540151</v>
+        <v>367634</v>
       </c>
     </row>
     <row r="702" spans="1:4" x14ac:dyDescent="0.25">
@@ -22509,7 +22548,7 @@
       </c>
       <c r="C702">
         <f t="shared" ca="1" si="33"/>
-        <v>506162</v>
+        <v>623820</v>
       </c>
     </row>
     <row r="703" spans="1:4" x14ac:dyDescent="0.25">
@@ -22521,7 +22560,7 @@
       </c>
       <c r="C703">
         <f t="shared" ca="1" si="33"/>
-        <v>492147</v>
+        <v>377348</v>
       </c>
     </row>
     <row r="704" spans="1:4" x14ac:dyDescent="0.25">
@@ -22533,7 +22572,7 @@
       </c>
       <c r="C704">
         <f t="shared" ca="1" si="33"/>
-        <v>455511</v>
+        <v>347951</v>
       </c>
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.25">
@@ -22545,7 +22584,7 @@
       </c>
       <c r="C705">
         <f t="shared" ca="1" si="33"/>
-        <v>432487</v>
+        <v>402620</v>
       </c>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.25">
@@ -22557,7 +22596,7 @@
       </c>
       <c r="C706">
         <f t="shared" ca="1" si="33"/>
-        <v>419294</v>
+        <v>614477</v>
       </c>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.25">
@@ -22569,7 +22608,7 @@
       </c>
       <c r="C707">
         <f t="shared" ca="1" si="33"/>
-        <v>501042</v>
+        <v>562504</v>
       </c>
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.25">
@@ -22581,7 +22620,7 @@
       </c>
       <c r="C708">
         <f t="shared" ca="1" si="33"/>
-        <v>601935</v>
+        <v>446000</v>
       </c>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.25">
@@ -22593,7 +22632,7 @@
       </c>
       <c r="C709">
         <f t="shared" ca="1" si="33"/>
-        <v>519310</v>
+        <v>454258</v>
       </c>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.25">
@@ -22605,7 +22644,7 @@
       </c>
       <c r="C710">
         <f t="shared" ca="1" si="33"/>
-        <v>383780</v>
+        <v>362591</v>
       </c>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.25">
@@ -22617,7 +22656,7 @@
       </c>
       <c r="C711">
         <f t="shared" ca="1" si="33"/>
-        <v>529707</v>
+        <v>421867</v>
       </c>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.25">
@@ -22629,7 +22668,7 @@
       </c>
       <c r="C712">
         <f t="shared" ca="1" si="33"/>
-        <v>467009</v>
+        <v>561473</v>
       </c>
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.25">
@@ -22641,7 +22680,7 @@
       </c>
       <c r="C713">
         <f t="shared" ca="1" si="33"/>
-        <v>372063</v>
+        <v>489860</v>
       </c>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.25">
@@ -22653,7 +22692,7 @@
       </c>
       <c r="C714">
         <f t="shared" ca="1" si="33"/>
-        <v>468838</v>
+        <v>599329</v>
       </c>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.25">
@@ -22665,7 +22704,7 @@
       </c>
       <c r="C715">
         <f t="shared" ca="1" si="33"/>
-        <v>476978</v>
+        <v>511721</v>
       </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.25">
@@ -22677,7 +22716,7 @@
       </c>
       <c r="C716">
         <f t="shared" ca="1" si="33"/>
-        <v>353855</v>
+        <v>446373</v>
       </c>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.25">
@@ -22689,7 +22728,7 @@
       </c>
       <c r="C717">
         <f t="shared" ca="1" si="33"/>
-        <v>605400</v>
+        <v>579638</v>
       </c>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.25">
@@ -22701,7 +22740,7 @@
       </c>
       <c r="C718">
         <f t="shared" ca="1" si="33"/>
-        <v>434803</v>
+        <v>553814</v>
       </c>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.25">
@@ -22713,7 +22752,7 @@
       </c>
       <c r="C719">
         <f t="shared" ca="1" si="33"/>
-        <v>543538</v>
+        <v>456739</v>
       </c>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.25">
@@ -22725,7 +22764,7 @@
       </c>
       <c r="C720">
         <f t="shared" ca="1" si="33"/>
-        <v>392725</v>
+        <v>372982</v>
       </c>
     </row>
     <row r="721" spans="1:4" x14ac:dyDescent="0.25">
@@ -22737,7 +22776,7 @@
       </c>
       <c r="C721">
         <f t="shared" ca="1" si="33"/>
-        <v>473883</v>
+        <v>615246</v>
       </c>
     </row>
     <row r="722" spans="1:4" x14ac:dyDescent="0.25">
@@ -22749,7 +22788,7 @@
       </c>
       <c r="C722">
         <f t="shared" ca="1" si="33"/>
-        <v>568300</v>
+        <v>533105</v>
       </c>
     </row>
     <row r="723" spans="1:4" x14ac:dyDescent="0.25">
@@ -22761,7 +22800,7 @@
       </c>
       <c r="C723">
         <f t="shared" ca="1" si="33"/>
-        <v>412027</v>
+        <v>552057</v>
       </c>
     </row>
     <row r="724" spans="1:4" x14ac:dyDescent="0.25">
@@ -22773,7 +22812,7 @@
       </c>
       <c r="C724">
         <f t="shared" ca="1" si="33"/>
-        <v>449396</v>
+        <v>348811</v>
       </c>
     </row>
     <row r="725" spans="1:4" x14ac:dyDescent="0.25">
@@ -22785,7 +22824,7 @@
       </c>
       <c r="C725">
         <f t="shared" ca="1" si="33"/>
-        <v>453242</v>
+        <v>610793</v>
       </c>
     </row>
     <row r="726" spans="1:4" x14ac:dyDescent="0.25">
@@ -22797,7 +22836,7 @@
       </c>
       <c r="C726">
         <f t="shared" ca="1" si="33"/>
-        <v>379398</v>
+        <v>357114</v>
       </c>
     </row>
     <row r="727" spans="1:4" x14ac:dyDescent="0.25">
@@ -22809,7 +22848,7 @@
       </c>
       <c r="C727">
         <f t="shared" ca="1" si="33"/>
-        <v>559403</v>
+        <v>608338</v>
       </c>
     </row>
     <row r="728" spans="1:4" x14ac:dyDescent="0.25">
@@ -22821,7 +22860,7 @@
       </c>
       <c r="C728">
         <f t="shared" ca="1" si="33"/>
-        <v>586955</v>
+        <v>542041</v>
       </c>
     </row>
     <row r="730" spans="1:4" x14ac:dyDescent="0.25">
@@ -22833,11 +22872,11 @@
       </c>
       <c r="C730">
         <f t="shared" ref="C730:D790" ca="1" si="34">RANDBETWEEN(345000,624900)</f>
-        <v>351122</v>
+        <v>394348</v>
       </c>
       <c r="D730">
         <f t="shared" ca="1" si="34"/>
-        <v>376691</v>
+        <v>452527</v>
       </c>
     </row>
     <row r="731" spans="1:4" x14ac:dyDescent="0.25">
@@ -22849,7 +22888,7 @@
       </c>
       <c r="C731">
         <f t="shared" ca="1" si="34"/>
-        <v>405894</v>
+        <v>595823</v>
       </c>
     </row>
     <row r="732" spans="1:4" x14ac:dyDescent="0.25">
@@ -22861,7 +22900,7 @@
       </c>
       <c r="C732">
         <f t="shared" ca="1" si="34"/>
-        <v>461336</v>
+        <v>474431</v>
       </c>
     </row>
     <row r="733" spans="1:4" x14ac:dyDescent="0.25">
@@ -22873,7 +22912,7 @@
       </c>
       <c r="C733">
         <f t="shared" ca="1" si="34"/>
-        <v>422972</v>
+        <v>597434</v>
       </c>
     </row>
     <row r="734" spans="1:4" x14ac:dyDescent="0.25">
@@ -22885,7 +22924,7 @@
       </c>
       <c r="C734">
         <f t="shared" ca="1" si="34"/>
-        <v>456532</v>
+        <v>353759</v>
       </c>
     </row>
     <row r="735" spans="1:4" x14ac:dyDescent="0.25">
@@ -22897,7 +22936,7 @@
       </c>
       <c r="C735">
         <f t="shared" ca="1" si="34"/>
-        <v>555707</v>
+        <v>397699</v>
       </c>
     </row>
     <row r="736" spans="1:4" x14ac:dyDescent="0.25">
@@ -22909,7 +22948,7 @@
       </c>
       <c r="C736">
         <f t="shared" ca="1" si="34"/>
-        <v>523662</v>
+        <v>512711</v>
       </c>
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.25">
@@ -22921,7 +22960,7 @@
       </c>
       <c r="C737">
         <f t="shared" ca="1" si="34"/>
-        <v>418514</v>
+        <v>479247</v>
       </c>
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.25">
@@ -22933,7 +22972,7 @@
       </c>
       <c r="C738">
         <f t="shared" ca="1" si="34"/>
-        <v>559361</v>
+        <v>357345</v>
       </c>
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.25">
@@ -22945,7 +22984,7 @@
       </c>
       <c r="C739">
         <f t="shared" ca="1" si="34"/>
-        <v>573923</v>
+        <v>352314</v>
       </c>
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.25">
@@ -22957,7 +22996,7 @@
       </c>
       <c r="C740">
         <f t="shared" ca="1" si="34"/>
-        <v>545239</v>
+        <v>493945</v>
       </c>
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.25">
@@ -22969,7 +23008,7 @@
       </c>
       <c r="C741">
         <f t="shared" ca="1" si="34"/>
-        <v>548506</v>
+        <v>605971</v>
       </c>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.25">
@@ -22981,7 +23020,7 @@
       </c>
       <c r="C742">
         <f t="shared" ca="1" si="34"/>
-        <v>584638</v>
+        <v>573726</v>
       </c>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.25">
@@ -22993,7 +23032,7 @@
       </c>
       <c r="C743">
         <f t="shared" ca="1" si="34"/>
-        <v>533780</v>
+        <v>458012</v>
       </c>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.25">
@@ -23005,7 +23044,7 @@
       </c>
       <c r="C744">
         <f t="shared" ca="1" si="34"/>
-        <v>495144</v>
+        <v>564455</v>
       </c>
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.25">
@@ -23017,7 +23056,7 @@
       </c>
       <c r="C745">
         <f t="shared" ca="1" si="34"/>
-        <v>355249</v>
+        <v>604516</v>
       </c>
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.25">
@@ -23029,7 +23068,7 @@
       </c>
       <c r="C746">
         <f t="shared" ca="1" si="34"/>
-        <v>418534</v>
+        <v>583280</v>
       </c>
     </row>
     <row r="747" spans="1:3" x14ac:dyDescent="0.25">
@@ -23041,7 +23080,7 @@
       </c>
       <c r="C747">
         <f t="shared" ca="1" si="34"/>
-        <v>539196</v>
+        <v>463584</v>
       </c>
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.25">
@@ -23053,7 +23092,7 @@
       </c>
       <c r="C748">
         <f t="shared" ca="1" si="34"/>
-        <v>483316</v>
+        <v>510616</v>
       </c>
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.25">
@@ -23065,7 +23104,7 @@
       </c>
       <c r="C749">
         <f t="shared" ca="1" si="34"/>
-        <v>618326</v>
+        <v>605518</v>
       </c>
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.25">
@@ -23077,7 +23116,7 @@
       </c>
       <c r="C750">
         <f t="shared" ca="1" si="34"/>
-        <v>396859</v>
+        <v>388937</v>
       </c>
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.25">
@@ -23089,7 +23128,7 @@
       </c>
       <c r="C751">
         <f t="shared" ca="1" si="34"/>
-        <v>362342</v>
+        <v>495647</v>
       </c>
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.25">
@@ -23101,7 +23140,7 @@
       </c>
       <c r="C752">
         <f t="shared" ca="1" si="34"/>
-        <v>458471</v>
+        <v>615312</v>
       </c>
     </row>
     <row r="753" spans="1:4" x14ac:dyDescent="0.25">
@@ -23113,7 +23152,7 @@
       </c>
       <c r="C753">
         <f t="shared" ca="1" si="34"/>
-        <v>394898</v>
+        <v>348583</v>
       </c>
     </row>
     <row r="754" spans="1:4" x14ac:dyDescent="0.25">
@@ -23125,7 +23164,7 @@
       </c>
       <c r="C754">
         <f t="shared" ca="1" si="34"/>
-        <v>423899</v>
+        <v>370091</v>
       </c>
     </row>
     <row r="755" spans="1:4" x14ac:dyDescent="0.25">
@@ -23137,7 +23176,7 @@
       </c>
       <c r="C755">
         <f t="shared" ca="1" si="34"/>
-        <v>508360</v>
+        <v>618848</v>
       </c>
     </row>
     <row r="756" spans="1:4" x14ac:dyDescent="0.25">
@@ -23149,7 +23188,7 @@
       </c>
       <c r="C756">
         <f t="shared" ca="1" si="34"/>
-        <v>507785</v>
+        <v>585153</v>
       </c>
     </row>
     <row r="757" spans="1:4" x14ac:dyDescent="0.25">
@@ -23161,7 +23200,7 @@
       </c>
       <c r="C757">
         <f t="shared" ca="1" si="34"/>
-        <v>394243</v>
+        <v>543106</v>
       </c>
     </row>
     <row r="758" spans="1:4" x14ac:dyDescent="0.25">
@@ -23173,7 +23212,7 @@
       </c>
       <c r="C758">
         <f t="shared" ca="1" si="34"/>
-        <v>553314</v>
+        <v>383401</v>
       </c>
     </row>
     <row r="759" spans="1:4" x14ac:dyDescent="0.25">
@@ -23185,7 +23224,7 @@
       </c>
       <c r="C759">
         <f t="shared" ca="1" si="34"/>
-        <v>465200</v>
+        <v>553231</v>
       </c>
     </row>
     <row r="761" spans="1:4" x14ac:dyDescent="0.25">
@@ -23197,11 +23236,11 @@
       </c>
       <c r="C761">
         <f t="shared" ca="1" si="34"/>
-        <v>404092</v>
+        <v>573079</v>
       </c>
       <c r="D761">
         <f t="shared" ca="1" si="34"/>
-        <v>529229</v>
+        <v>572327</v>
       </c>
     </row>
     <row r="762" spans="1:4" x14ac:dyDescent="0.25">
@@ -23213,7 +23252,7 @@
       </c>
       <c r="C762">
         <f t="shared" ca="1" si="34"/>
-        <v>558346</v>
+        <v>531087</v>
       </c>
     </row>
     <row r="763" spans="1:4" x14ac:dyDescent="0.25">
@@ -23225,7 +23264,7 @@
       </c>
       <c r="C763">
         <f t="shared" ca="1" si="34"/>
-        <v>374266</v>
+        <v>461281</v>
       </c>
     </row>
     <row r="764" spans="1:4" x14ac:dyDescent="0.25">
@@ -23237,7 +23276,7 @@
       </c>
       <c r="C764">
         <f t="shared" ca="1" si="34"/>
-        <v>609310</v>
+        <v>567626</v>
       </c>
     </row>
     <row r="765" spans="1:4" x14ac:dyDescent="0.25">
@@ -23249,7 +23288,7 @@
       </c>
       <c r="C765">
         <f t="shared" ca="1" si="34"/>
-        <v>597157</v>
+        <v>571408</v>
       </c>
     </row>
     <row r="766" spans="1:4" x14ac:dyDescent="0.25">
@@ -23261,7 +23300,7 @@
       </c>
       <c r="C766">
         <f t="shared" ca="1" si="34"/>
-        <v>511736</v>
+        <v>520461</v>
       </c>
     </row>
     <row r="767" spans="1:4" x14ac:dyDescent="0.25">
@@ -23273,7 +23312,7 @@
       </c>
       <c r="C767">
         <f t="shared" ca="1" si="34"/>
-        <v>532849</v>
+        <v>520171</v>
       </c>
     </row>
     <row r="768" spans="1:4" x14ac:dyDescent="0.25">
@@ -23285,7 +23324,7 @@
       </c>
       <c r="C768">
         <f t="shared" ca="1" si="34"/>
-        <v>597639</v>
+        <v>602121</v>
       </c>
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.25">
@@ -23297,7 +23336,7 @@
       </c>
       <c r="C769">
         <f t="shared" ca="1" si="34"/>
-        <v>552291</v>
+        <v>424926</v>
       </c>
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.25">
@@ -23309,7 +23348,7 @@
       </c>
       <c r="C770">
         <f t="shared" ca="1" si="34"/>
-        <v>373272</v>
+        <v>356741</v>
       </c>
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.25">
@@ -23321,7 +23360,7 @@
       </c>
       <c r="C771">
         <f t="shared" ca="1" si="34"/>
-        <v>380425</v>
+        <v>455686</v>
       </c>
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.25">
@@ -23333,7 +23372,7 @@
       </c>
       <c r="C772">
         <f t="shared" ca="1" si="34"/>
-        <v>410427</v>
+        <v>504020</v>
       </c>
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.25">
@@ -23345,7 +23384,7 @@
       </c>
       <c r="C773">
         <f t="shared" ca="1" si="34"/>
-        <v>516969</v>
+        <v>459580</v>
       </c>
     </row>
     <row r="774" spans="1:3" x14ac:dyDescent="0.25">
@@ -23357,7 +23396,7 @@
       </c>
       <c r="C774">
         <f t="shared" ca="1" si="34"/>
-        <v>380719</v>
+        <v>444281</v>
       </c>
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.25">
@@ -23369,7 +23408,7 @@
       </c>
       <c r="C775">
         <f t="shared" ca="1" si="34"/>
-        <v>416063</v>
+        <v>569871</v>
       </c>
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.25">
@@ -23381,7 +23420,7 @@
       </c>
       <c r="C776">
         <f t="shared" ca="1" si="34"/>
-        <v>377762</v>
+        <v>484109</v>
       </c>
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.25">
@@ -23393,7 +23432,7 @@
       </c>
       <c r="C777">
         <f t="shared" ca="1" si="34"/>
-        <v>448797</v>
+        <v>524274</v>
       </c>
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.25">
@@ -23405,7 +23444,7 @@
       </c>
       <c r="C778">
         <f t="shared" ca="1" si="34"/>
-        <v>371179</v>
+        <v>369920</v>
       </c>
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.25">
@@ -23417,7 +23456,7 @@
       </c>
       <c r="C779">
         <f t="shared" ca="1" si="34"/>
-        <v>396996</v>
+        <v>457282</v>
       </c>
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.25">
@@ -23429,7 +23468,7 @@
       </c>
       <c r="C780">
         <f t="shared" ca="1" si="34"/>
-        <v>593884</v>
+        <v>456996</v>
       </c>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.25">
@@ -23441,7 +23480,7 @@
       </c>
       <c r="C781">
         <f t="shared" ca="1" si="34"/>
-        <v>585220</v>
+        <v>524126</v>
       </c>
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.25">
@@ -23453,7 +23492,7 @@
       </c>
       <c r="C782">
         <f t="shared" ca="1" si="34"/>
-        <v>518551</v>
+        <v>367573</v>
       </c>
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.25">
@@ -23465,7 +23504,7 @@
       </c>
       <c r="C783">
         <f t="shared" ca="1" si="34"/>
-        <v>528243</v>
+        <v>426450</v>
       </c>
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.25">
@@ -23477,7 +23516,7 @@
       </c>
       <c r="C784">
         <f t="shared" ca="1" si="34"/>
-        <v>554690</v>
+        <v>556345</v>
       </c>
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.25">
@@ -23489,7 +23528,7 @@
       </c>
       <c r="C785">
         <f t="shared" ca="1" si="34"/>
-        <v>529525</v>
+        <v>351640</v>
       </c>
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.25">
@@ -23501,7 +23540,7 @@
       </c>
       <c r="C786">
         <f t="shared" ca="1" si="34"/>
-        <v>610968</v>
+        <v>570993</v>
       </c>
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.25">
@@ -23513,7 +23552,7 @@
       </c>
       <c r="C787">
         <f t="shared" ca="1" si="34"/>
-        <v>449736</v>
+        <v>595689</v>
       </c>
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.25">
@@ -23525,7 +23564,7 @@
       </c>
       <c r="C788">
         <f t="shared" ca="1" si="34"/>
-        <v>388962</v>
+        <v>391760</v>
       </c>
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.25">
@@ -23537,7 +23576,7 @@
       </c>
       <c r="C789">
         <f t="shared" ca="1" si="34"/>
-        <v>358674</v>
+        <v>624232</v>
       </c>
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.25">
@@ -23549,7 +23588,7 @@
       </c>
       <c r="C790">
         <f t="shared" ca="1" si="34"/>
-        <v>522304</v>
+        <v>390983</v>
       </c>
     </row>
   </sheetData>
